--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -7,16 +7,16 @@
     <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="家用机" sheetId="1" r:id="rId1"/>
+    <sheet name="街机" sheetId="3" r:id="rId2"/>
+    <sheet name="模拟器" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
   <si>
     <t>厂商</t>
   </si>
@@ -202,6 +202,135 @@
   </si>
   <si>
     <t>Xbox 360</t>
+  </si>
+  <si>
+    <t>SNK</t>
+  </si>
+  <si>
+    <t>NEOGEO</t>
+  </si>
+  <si>
+    <t>Multi-Video System</t>
+  </si>
+  <si>
+    <t>capcom</t>
+  </si>
+  <si>
+    <t>卡普空</t>
+  </si>
+  <si>
+    <t>CPS1</t>
+  </si>
+  <si>
+    <t>CAPCOM PLAY SYSTEM 1</t>
+  </si>
+  <si>
+    <t>CPS2</t>
+  </si>
+  <si>
+    <t>CAPCOM PLAY SYSTEM 2</t>
+  </si>
+  <si>
+    <t>CPS3</t>
+  </si>
+  <si>
+    <t>CAPCOM PLAY SYSTEM 3</t>
+  </si>
+  <si>
+    <t>namco</t>
+  </si>
+  <si>
+    <t>南宫梦</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Namco System 359</t>
+  </si>
+  <si>
+    <t>SEGA</t>
+  </si>
+  <si>
+    <t>SEGA NU</t>
+  </si>
+  <si>
+    <t>DATA EAST</t>
+  </si>
+  <si>
+    <t>DATA EAST MLC SYSTEM</t>
+  </si>
+  <si>
+    <t>EXIDY</t>
+  </si>
+  <si>
+    <t>EXIDY 440 SYSTEM</t>
+  </si>
+  <si>
+    <t>IREM</t>
+  </si>
+  <si>
+    <t>IREM M107</t>
+  </si>
+  <si>
+    <t>KONAMI</t>
+  </si>
+  <si>
+    <t>KONAMI PYTHON 2</t>
+  </si>
+  <si>
+    <t>MIDWAY</t>
+  </si>
+  <si>
+    <t>MIDWAY GRAPHITE</t>
+  </si>
+  <si>
+    <t>TAITO TYPE X3</t>
+  </si>
+  <si>
+    <t>ATARI</t>
+  </si>
+  <si>
+    <t>ATARI DENVER</t>
+  </si>
+  <si>
+    <t>CAVE</t>
+  </si>
+  <si>
+    <t>CAVE PC</t>
+  </si>
+  <si>
+    <t>EOLITH GRADATION 2D SYSTEM</t>
+  </si>
+  <si>
+    <t>GAELCO 3D</t>
+  </si>
+  <si>
+    <t>MICROPROSE 3D</t>
+  </si>
+  <si>
+    <t>KANEKO SUPER NOVA SYSTEM</t>
+  </si>
+  <si>
+    <t>INCREDIBLE TECHNOLOGIES 32-BIT</t>
+  </si>
+  <si>
+    <t>TOAPLAN VERSION 2</t>
+  </si>
+  <si>
+    <t>SAMMY SETA VISCO SSV</t>
+  </si>
+  <si>
+    <t>PGM 2</t>
+  </si>
+  <si>
+    <t>PSIKYO 1ST GENERATION</t>
+  </si>
+  <si>
+    <t>BREZZASOFT CRYSTAL SYSTEM</t>
+  </si>
+  <si>
+    <t>NAMCO SYSTEM 246</t>
   </si>
   <si>
     <t>模拟器名称</t>
@@ -216,11 +345,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,18 +358,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,29 +388,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -290,7 +395,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,8 +416,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,22 +433,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,7 +463,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -366,15 +470,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,18 +511,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,163 +685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,6 +710,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,17 +759,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,171 +802,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,10 +1304,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1545,6 +1667,20 @@
         <v>2016</v>
       </c>
     </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23">
+        <v>1990</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1555,25 +1691,325 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="32.125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3">
+        <v>1993</v>
+      </c>
+      <c r="I3">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:8">
+      <c r="A5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B5"/>
+      <c r="C5" t="s">
         <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8">
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8">
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8">
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8">
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8">
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8">
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8">
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8">
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8">
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26">
+        <v>2002</v>
       </c>
     </row>
   </sheetData>
@@ -1586,14 +2022,28 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="家用机" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="120">
   <si>
     <t>厂商</t>
   </si>
@@ -336,7 +336,46 @@
     <t>模拟器名称</t>
   </si>
   <si>
+    <t>cps1</t>
+  </si>
+  <si>
+    <t>cps2</t>
+  </si>
+  <si>
+    <t>neogeo</t>
+  </si>
+  <si>
+    <t>igs</t>
+  </si>
+  <si>
+    <t>n64</t>
+  </si>
+  <si>
     <t>RetroArch教程</t>
+  </si>
+  <si>
+    <t>Mesen</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>snes9x1.56</t>
+  </si>
+  <si>
+    <t>VirtuaNES</t>
+  </si>
+  <si>
+    <t>VisualBoyAdvance</t>
+  </si>
+  <si>
+    <t>WinKawaks1.65</t>
+  </si>
+  <si>
+    <t>Project64</t>
+  </si>
+  <si>
+    <t>Nebula</t>
   </si>
 </sst>
 </file>
@@ -344,10 +383,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -359,21 +398,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -381,14 +420,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,7 +449,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -425,7 +457,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,17 +465,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,6 +487,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -487,18 +534,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -511,19 +550,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,163 +718,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,15 +741,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -729,17 +759,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,28 +806,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,6 +826,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -810,10 +849,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,133 +861,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1693,7 +1732,7 @@
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -1791,7 +1830,6 @@
       <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B5"/>
       <c r="C5" t="s">
         <v>63</v>
       </c>
@@ -2022,25 +2060,120 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>105</v>
       </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
   <si>
     <t>厂商</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>Nebula</t>
+  </si>
+  <si>
+    <t>MAME Plus</t>
   </si>
 </sst>
 </file>
@@ -384,9 +387,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -398,6 +401,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -405,7 +415,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +423,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -420,7 +438,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,32 +460,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,15 +482,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,7 +492,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,14 +543,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -550,13 +553,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,169 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,65 +744,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -827,6 +771,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -841,6 +829,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -849,145 +852,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2060,10 +2063,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2176,6 +2179,20 @@
         <v>113</v>
       </c>
     </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="家用机" sheetId="1" r:id="rId1"/>
     <sheet name="街机" sheetId="3" r:id="rId2"/>
     <sheet name="模拟器" sheetId="2" r:id="rId3"/>
+    <sheet name="经典游戏" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="179">
   <si>
     <t>厂商</t>
   </si>
@@ -379,6 +380,180 @@
   </si>
   <si>
     <t>MAME Plus</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>发行时间</t>
+  </si>
+  <si>
+    <t>西游释厄传</t>
+  </si>
+  <si>
+    <t>IGS</t>
+  </si>
+  <si>
+    <t>惩罚者</t>
+  </si>
+  <si>
+    <t>铁钩船长</t>
+  </si>
+  <si>
+    <t>Irem</t>
+  </si>
+  <si>
+    <t>名将</t>
+  </si>
+  <si>
+    <t>圆桌骑士</t>
+  </si>
+  <si>
+    <t>恐龙快打</t>
+  </si>
+  <si>
+    <t>三国志</t>
+  </si>
+  <si>
+    <t>合金弹头</t>
+  </si>
+  <si>
+    <t>拳皇</t>
+  </si>
+  <si>
+    <t>三国战纪</t>
+  </si>
+  <si>
+    <t>街头霸王</t>
+  </si>
+  <si>
+    <t>侍魂</t>
+  </si>
+  <si>
+    <t>三个奇迹</t>
+  </si>
+  <si>
+    <t>快打旋风</t>
+  </si>
+  <si>
+    <t>双截龙</t>
+  </si>
+  <si>
+    <t>豪血寺一族</t>
+  </si>
+  <si>
+    <t>天外魔境真传</t>
+  </si>
+  <si>
+    <t>月华剑士</t>
+  </si>
+  <si>
+    <t>魔法剑</t>
+  </si>
+  <si>
+    <t>吞食天地</t>
+  </si>
+  <si>
+    <t>魂斗罗</t>
+  </si>
+  <si>
+    <t>蝙蝠侠</t>
+  </si>
+  <si>
+    <t>超级马里奥</t>
+  </si>
+  <si>
+    <t>赤色要塞</t>
+  </si>
+  <si>
+    <t>恶魔城</t>
+  </si>
+  <si>
+    <t>洛克人</t>
+  </si>
+  <si>
+    <t>冒险岛</t>
+  </si>
+  <si>
+    <t>人间兵器</t>
+  </si>
+  <si>
+    <t>忍者龙剑传</t>
+  </si>
+  <si>
+    <t>三目童子</t>
+  </si>
+  <si>
+    <t>松鼠大作战</t>
+  </si>
+  <si>
+    <t>踢王</t>
+  </si>
+  <si>
+    <t>脱狱</t>
+  </si>
+  <si>
+    <t>西游记</t>
+  </si>
+  <si>
+    <t>最终任务</t>
+  </si>
+  <si>
+    <t>封神榜</t>
+  </si>
+  <si>
+    <t>最终幻想</t>
+  </si>
+  <si>
+    <t>水浒传</t>
+  </si>
+  <si>
+    <t>伊苏</t>
+  </si>
+  <si>
+    <t>幽游白书</t>
+  </si>
+  <si>
+    <t>超时空之轮</t>
+  </si>
+  <si>
+    <t>炸弹人</t>
+  </si>
+  <si>
+    <t>火焰之纹章</t>
+  </si>
+  <si>
+    <t>塞尔达传说</t>
+  </si>
+  <si>
+    <t>神秘岛</t>
+  </si>
+  <si>
+    <t>圣剑传说</t>
+  </si>
+  <si>
+    <t>天地创造</t>
+  </si>
+  <si>
+    <t>文明</t>
+  </si>
+  <si>
+    <t>勇者斗恶龙</t>
+  </si>
+  <si>
+    <t>忍者神龟</t>
+  </si>
+  <si>
+    <t>古墓丽影</t>
+  </si>
+  <si>
+    <t>黄金太阳</t>
+  </si>
+  <si>
+    <t>口袋妖怪</t>
+  </si>
+  <si>
+    <t>威洛之旅</t>
   </si>
 </sst>
 </file>
@@ -386,10 +561,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -408,12 +583,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -422,15 +598,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -438,7 +606,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,7 +620,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,9 +666,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -498,47 +712,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,187 +728,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,16 +932,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,6 +951,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,6 +990,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -814,36 +1019,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -852,10 +1027,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,133 +1039,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2065,7 +2240,7 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2198,4 +2373,383 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="226">
   <si>
     <t>厂商</t>
   </si>
@@ -554,6 +554,165 @@
   </si>
   <si>
     <t>威洛之旅</t>
+  </si>
+  <si>
+    <t>龙虎之拳</t>
+  </si>
+  <si>
+    <t>恶魔战士</t>
+  </si>
+  <si>
+    <t>斗神光辉</t>
+  </si>
+  <si>
+    <t>沉默之龙</t>
+  </si>
+  <si>
+    <t>战斗部落</t>
+  </si>
+  <si>
+    <t>暗黑封印</t>
+  </si>
+  <si>
+    <t>突击奇兵</t>
+  </si>
+  <si>
+    <t>荒野大镖客</t>
+  </si>
+  <si>
+    <t>绿色兵团</t>
+  </si>
+  <si>
+    <t>沙罗曼蛇</t>
+  </si>
+  <si>
+    <t>俄罗斯方块</t>
+  </si>
+  <si>
+    <t>太鼓达人</t>
+  </si>
+  <si>
+    <t>怒之铁拳</t>
+  </si>
+  <si>
+    <t>天蚕变</t>
+  </si>
+  <si>
+    <t>中东战争</t>
+  </si>
+  <si>
+    <t>雪人兄弟</t>
+  </si>
+  <si>
+    <t>泡泡龙</t>
+  </si>
+  <si>
+    <t>魔界村</t>
+  </si>
+  <si>
+    <t>双截龙格斗</t>
+  </si>
+  <si>
+    <t>死亡之屋</t>
+  </si>
+  <si>
+    <t>青蛙过河</t>
+  </si>
+  <si>
+    <t>吃豆人</t>
+  </si>
+  <si>
+    <t>电精</t>
+  </si>
+  <si>
+    <t>VR战警</t>
+  </si>
+  <si>
+    <t>打击者1945</t>
+  </si>
+  <si>
+    <t>战斧</t>
+  </si>
+  <si>
+    <t>铁板阵</t>
+  </si>
+  <si>
+    <t>兽王记</t>
+  </si>
+  <si>
+    <t>日落骑士</t>
+  </si>
+  <si>
+    <t>疯狂出租车</t>
+  </si>
+  <si>
+    <t>森林保护神</t>
+  </si>
+  <si>
+    <t>怒</t>
+  </si>
+  <si>
+    <t>四国战机</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终级战机</t>
+    </r>
+  </si>
+  <si>
+    <t>美少女战士</t>
+  </si>
+  <si>
+    <t>真人快打</t>
+  </si>
+  <si>
+    <t>月球漫步者</t>
+  </si>
+  <si>
+    <t>中华大仙</t>
+  </si>
+  <si>
+    <t>异域战将</t>
+  </si>
+  <si>
+    <t>大魔界村</t>
+  </si>
+  <si>
+    <t>打砖块</t>
+  </si>
+  <si>
+    <t>狂热节拍</t>
+  </si>
+  <si>
+    <t>怒首領蜂</t>
+  </si>
+  <si>
+    <t>特殊部队</t>
+  </si>
+  <si>
+    <t>Taito</t>
+  </si>
+  <si>
+    <t>台球</t>
+  </si>
+  <si>
+    <t>龙与地下城：毁灭之塔</t>
   </si>
 </sst>
 </file>
@@ -561,12 +720,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,16 +741,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,13 +773,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -620,23 +780,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,6 +810,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -673,9 +825,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,34 +864,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -725,6 +890,138 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -734,7 +1031,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,55 +1055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,109 +1073,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,26 +1087,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,19 +1129,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,17 +1174,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,150 +1192,156 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2378,15 +2549,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2748,6 +2919,262 @@
         <v>178</v>
       </c>
     </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>221</v>
+      </c>
+      <c r="B99" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>222</v>
+      </c>
+      <c r="B100" t="s">
+        <v>223</v>
+      </c>
+      <c r="C100">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>224</v>
+      </c>
+      <c r="C101">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102">
+        <v>1994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="家用机" sheetId="1" r:id="rId1"/>
     <sheet name="街机" sheetId="3" r:id="rId2"/>
     <sheet name="模拟器" sheetId="2" r:id="rId3"/>
     <sheet name="经典游戏" sheetId="4" r:id="rId4"/>
+    <sheet name="经典游戏2中文名称版" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="276">
   <si>
     <t>厂商</t>
   </si>
@@ -714,16 +715,166 @@
   <si>
     <t>龙与地下城：毁灭之塔</t>
   </si>
+  <si>
+    <t>游戏类型</t>
+  </si>
+  <si>
+    <t>超级马里奥兄弟</t>
+  </si>
+  <si>
+    <t>Nintendo</t>
+  </si>
+  <si>
+    <t>双截龙1</t>
+  </si>
+  <si>
+    <t>Tradewest</t>
+  </si>
+  <si>
+    <t>双截龙2</t>
+  </si>
+  <si>
+    <t>TECHNOS</t>
+  </si>
+  <si>
+    <t>双截龙3</t>
+  </si>
+  <si>
+    <t>大金刚1</t>
+  </si>
+  <si>
+    <t>大金刚JR</t>
+  </si>
+  <si>
+    <t>大金刚3</t>
+  </si>
+  <si>
+    <t>街头小子</t>
+  </si>
+  <si>
+    <t>LJN</t>
+  </si>
+  <si>
+    <t>Capcom</t>
+  </si>
+  <si>
+    <t>WinKawaks</t>
+  </si>
+  <si>
+    <t>火焰纹章外传</t>
+  </si>
+  <si>
+    <t>松鼠大战1</t>
+  </si>
+  <si>
+    <t>松鼠大战2</t>
+  </si>
+  <si>
+    <t>忍者龙剑传1</t>
+  </si>
+  <si>
+    <t>TECMO</t>
+  </si>
+  <si>
+    <t>忍者龙剑传2</t>
+  </si>
+  <si>
+    <t>忍者龙剑传3</t>
+  </si>
+  <si>
+    <t>恶魔城1</t>
+  </si>
+  <si>
+    <t>konami</t>
+  </si>
+  <si>
+    <t>快打旋风1</t>
+  </si>
+  <si>
+    <t>大话西游</t>
+  </si>
+  <si>
+    <t>魔神英雄传</t>
+  </si>
+  <si>
+    <t>吞食天地1</t>
+  </si>
+  <si>
+    <t>吞食天地2诸葛孔明传</t>
+  </si>
+  <si>
+    <t>绿野仙踪</t>
+  </si>
+  <si>
+    <t>岳飞传</t>
+  </si>
+  <si>
+    <t>英语词霸</t>
+  </si>
+  <si>
+    <t>小霸王学习卡四代</t>
+  </si>
+  <si>
+    <t>爆笑三国-上古神剑</t>
+  </si>
+  <si>
+    <t>坦克大战</t>
+  </si>
+  <si>
+    <t>生化危机1</t>
+  </si>
+  <si>
+    <t>地道战</t>
+  </si>
+  <si>
+    <t>不动明王传</t>
+  </si>
+  <si>
+    <t>龙珠Z-超武斗传5</t>
+  </si>
+  <si>
+    <t>勇者斗恶龙1</t>
+  </si>
+  <si>
+    <t>勇者斗恶龙2</t>
+  </si>
+  <si>
+    <t>勇者斗恶龙3</t>
+  </si>
+  <si>
+    <t>勇者斗恶龙4</t>
+  </si>
+  <si>
+    <t>夺宝小英豪-光明与黑暗传说</t>
+  </si>
+  <si>
+    <t>电脑教育-学习卡</t>
+  </si>
+  <si>
+    <t>最终幻想1(银河时代、龙魂)</t>
+  </si>
+  <si>
+    <t>封神榜-伏魔三太子</t>
+  </si>
+  <si>
+    <t>冒险岛1</t>
+  </si>
+  <si>
+    <t>冒险岛2</t>
+  </si>
+  <si>
+    <t>冒险岛3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -734,6 +885,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -741,24 +923,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,13 +992,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -787,7 +999,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -795,61 +1007,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,16 +1022,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,19 +1044,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +1074,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,79 +1128,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,37 +1164,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,19 +1194,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,30 +1235,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1129,17 +1256,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,6 +1288,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1173,17 +1335,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1192,10 +1343,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1204,133 +1355,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2551,8 +2702,8 @@
   <sheetPr/>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3179,4 +3330,482 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2">
+        <v>1985</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3">
+        <v>1988</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4">
+        <v>1989</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5">
+        <v>1990</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6">
+        <v>1981</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7">
+        <v>1982</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8">
+        <v>1984</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9">
+        <v>1984</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10">
+        <v>1990</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11">
+        <v>1993</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12">
+        <v>1991</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13">
+        <v>1992</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14">
+        <v>1993</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15">
+        <v>1988</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16">
+        <v>1990</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17">
+        <v>1991</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18">
+        <v>1987</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19">
+        <v>1993</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="316">
   <si>
     <t>厂商</t>
   </si>
@@ -716,6 +716,9 @@
     <t>龙与地下城：毁灭之塔</t>
   </si>
   <si>
+    <t>编号</t>
+  </si>
+  <si>
     <t>游戏类型</t>
   </si>
   <si>
@@ -782,6 +785,9 @@
     <t>忍者龙剑传3</t>
   </si>
   <si>
+    <t>忍者龙剑传Rip</t>
+  </si>
+  <si>
     <t>恶魔城1</t>
   </si>
   <si>
@@ -864,6 +870,120 @@
   </si>
   <si>
     <t>冒险岛3</t>
+  </si>
+  <si>
+    <t>密不可分</t>
+  </si>
+  <si>
+    <t>战地小子1-危机四伏</t>
+  </si>
+  <si>
+    <t>战地小子2-痛苦之山</t>
+  </si>
+  <si>
+    <t>酷男孩400合1</t>
+  </si>
+  <si>
+    <t>植物大战僵尸</t>
+  </si>
+  <si>
+    <t>22合1</t>
+  </si>
+  <si>
+    <t>火箭人-迷你版</t>
+  </si>
+  <si>
+    <t>屠龙刀</t>
+  </si>
+  <si>
+    <t>奇迹兔</t>
+  </si>
+  <si>
+    <t>海湾战争</t>
+  </si>
+  <si>
+    <t>街头霸王5-40人版本</t>
+  </si>
+  <si>
+    <t>街头霸王5-60人版本</t>
+  </si>
+  <si>
+    <t>街头霸王6-12人</t>
+  </si>
+  <si>
+    <t>波特推箱子</t>
+  </si>
+  <si>
+    <t>真人快打3-48人</t>
+  </si>
+  <si>
+    <t>真人快打3-14人</t>
+  </si>
+  <si>
+    <t>疯狂赛车</t>
+  </si>
+  <si>
+    <t>割草机</t>
+  </si>
+  <si>
+    <t>水管王</t>
+  </si>
+  <si>
+    <t>太平绅士鲁尼</t>
+  </si>
+  <si>
+    <t>水果狸</t>
+  </si>
+  <si>
+    <t>方块小子</t>
+  </si>
+  <si>
+    <t>梦幻波依</t>
+  </si>
+  <si>
+    <t>找茬</t>
+  </si>
+  <si>
+    <t>跳舞方块</t>
+  </si>
+  <si>
+    <t>炸弹人2002</t>
+  </si>
+  <si>
+    <t>另一个我</t>
+  </si>
+  <si>
+    <t>超级陷阱2</t>
+  </si>
+  <si>
+    <t>84珍藏版本未整理</t>
+  </si>
+  <si>
+    <t>50合一</t>
+  </si>
+  <si>
+    <t>3合1</t>
+  </si>
+  <si>
+    <t>4合1 Benshieng BS-7083</t>
+  </si>
+  <si>
+    <t>4合1 Benshieng BS-7090</t>
+  </si>
+  <si>
+    <t>4合1 Benshieng-BS-7092</t>
+  </si>
+  <si>
+    <t>4合1 Digital Adventure</t>
+  </si>
+  <si>
+    <t>4合1 YH4239</t>
+  </si>
+  <si>
+    <t>泰坦尼克号</t>
+  </si>
+  <si>
+    <t>生化猿人</t>
   </si>
 </sst>
 </file>
@@ -872,14 +992,67 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -894,7 +1067,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,95 +1075,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1006,9 +1097,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,6 +1143,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1044,7 +1164,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,7 +1266,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,103 +1296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,37 +1314,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,6 +1336,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1235,6 +1355,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1249,26 +1389,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1288,11 +1408,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1306,17 +1432,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1343,10 +1463,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1355,133 +1475,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3335,473 +3455,684 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" t="s">
-        <v>226</v>
-      </c>
       <c r="E1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>227</v>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>228</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2">
         <v>1985</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>229</v>
-      </c>
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>230</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3">
         <v>1988</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>231</v>
-      </c>
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>232</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4">
         <v>1989</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" t="s">
         <v>233</v>
       </c>
-      <c r="B5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5">
+      <c r="D5">
         <v>1990</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>234</v>
-      </c>
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6">
+        <v>235</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6">
         <v>1981</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>235</v>
-      </c>
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7">
+        <v>236</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7">
         <v>1982</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>236</v>
-      </c>
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8">
+        <v>237</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8">
         <v>1984</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>237</v>
-      </c>
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9">
+        <v>238</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9">
         <v>1984</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
         <v>125</v>
       </c>
-      <c r="B10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10">
         <v>1990</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
         <v>125</v>
       </c>
-      <c r="B11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11">
         <v>1993</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>67</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12">
+        <v>1991</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12">
-        <v>1991</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D13">
+        <v>1992</v>
+      </c>
+      <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C13">
-        <v>1992</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14">
+        <v>1993</v>
+      </c>
+      <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14">
-        <v>1993</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>244</v>
-      </c>
+    <row r="15" spans="2:6">
       <c r="B15" t="s">
         <v>245</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15">
         <v>1988</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" t="s">
         <v>246</v>
       </c>
-      <c r="B16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16">
+      <c r="D16">
         <v>1990</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>247</v>
-      </c>
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C17">
+        <v>248</v>
+      </c>
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17">
         <v>1991</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>248</v>
-      </c>
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>249</v>
       </c>
-      <c r="C18">
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19">
         <v>1987</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C19">
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20">
         <v>1993</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
         <v>254</v>
       </c>
-      <c r="C23">
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24">
         <v>1994</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="2:2">
+      <c r="B58" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="338">
   <si>
     <t>厂商</t>
   </si>
@@ -985,16 +985,82 @@
   <si>
     <t>生化猿人</t>
   </si>
+  <si>
+    <t>1943</t>
+  </si>
+  <si>
+    <t>AV麻将</t>
+  </si>
+  <si>
+    <t>F1赛车</t>
+  </si>
+  <si>
+    <t>FC原人</t>
+  </si>
+  <si>
+    <t>Hudson soft</t>
+  </si>
+  <si>
+    <t>蝙蝠侠1</t>
+  </si>
+  <si>
+    <t>sun soft</t>
+  </si>
+  <si>
+    <t>兵蜂</t>
+  </si>
+  <si>
+    <t>Konami</t>
+  </si>
+  <si>
+    <t>彩虹岛</t>
+  </si>
+  <si>
+    <t>拆屋工</t>
+  </si>
+  <si>
+    <t>超级魂斗罗</t>
+  </si>
+  <si>
+    <t>成龙踢馆</t>
+  </si>
+  <si>
+    <t>成龙之龙</t>
+  </si>
+  <si>
+    <t>Namco</t>
+  </si>
+  <si>
+    <t>赤影战士</t>
+  </si>
+  <si>
+    <t>充气狗</t>
+  </si>
+  <si>
+    <t>地底探险</t>
+  </si>
+  <si>
+    <t>鳄鱼先生</t>
+  </si>
+  <si>
+    <t>菲力猫</t>
+  </si>
+  <si>
+    <t>功夫</t>
+  </si>
+  <si>
+    <t>古巴英雄</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1012,7 +1078,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1021,53 +1086,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1076,14 +1096,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1105,9 +1117,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1127,6 +1176,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1135,17 +1207,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1170,13 +1236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,7 +1254,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,31 +1332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,19 +1362,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,61 +1392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,19 +1410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,41 +1421,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1426,8 +1457,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1437,6 +1479,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,6 +1506,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1463,10 +1529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1475,10 +1541,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1487,121 +1553,121 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1613,6 +1679,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1965,7 +2034,7 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -3455,10 +3524,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4135,6 +4204,209 @@
         <v>315</v>
       </c>
     </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C87" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87">
+        <v>1987</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" t="s">
+        <v>317</v>
+      </c>
+      <c r="D88">
+        <v>1991</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" t="s">
+        <v>318</v>
+      </c>
+      <c r="C89" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89">
+        <v>1984</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" t="s">
+        <v>319</v>
+      </c>
+      <c r="C90" t="s">
+        <v>320</v>
+      </c>
+      <c r="D90">
+        <v>1993</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" t="s">
+        <v>321</v>
+      </c>
+      <c r="C91" t="s">
+        <v>322</v>
+      </c>
+      <c r="D91">
+        <v>1989</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" t="s">
+        <v>323</v>
+      </c>
+      <c r="C92" t="s">
+        <v>324</v>
+      </c>
+      <c r="D92">
+        <v>1986</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" t="s">
+        <v>326</v>
+      </c>
+      <c r="C94" t="s">
+        <v>229</v>
+      </c>
+      <c r="D94">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" t="s">
+        <v>327</v>
+      </c>
+      <c r="C95" t="s">
+        <v>324</v>
+      </c>
+      <c r="D95">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" t="s">
+        <v>328</v>
+      </c>
+      <c r="C96" t="s">
+        <v>229</v>
+      </c>
+      <c r="D96">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98" t="s">
+        <v>330</v>
+      </c>
+      <c r="D98">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="341">
   <si>
     <t>厂商</t>
   </si>
@@ -1034,10 +1034,19 @@
     <t>赤影战士</t>
   </si>
   <si>
+    <t>natsume</t>
+  </si>
+  <si>
     <t>充气狗</t>
   </si>
   <si>
     <t>地底探险</t>
+  </si>
+  <si>
+    <t>Tim Martin</t>
+  </si>
+  <si>
+    <t>Academysoft Elorg</t>
   </si>
   <si>
     <t>鳄鱼先生</t>
@@ -1057,10 +1066,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1087,15 +1096,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1116,8 +1117,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,21 +1127,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,10 +1156,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1177,23 +1195,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1207,11 +1217,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1230,7 +1239,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,25 +1389,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,127 +1419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,17 +1433,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1458,36 +1487,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1507,17 +1522,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1532,7 +1541,7 @@
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1541,133 +1550,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3526,14 +3535,14 @@
   <sheetPr/>
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3832,9 +3841,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>249</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -3871,337 +3886,733 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
         <v>256</v>
       </c>
       <c r="D24">
         <v>1994</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="30" spans="2:2">
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="33" spans="2:2">
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="41" spans="2:2">
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="43" spans="2:2">
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="47" spans="2:2">
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="48" spans="2:2">
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="51" spans="2:2">
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
       <c r="B51" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="52" spans="2:2">
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
       <c r="B52" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="53" spans="2:2">
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
       <c r="B53" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="54" spans="2:2">
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="55" spans="2:2">
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="56" spans="2:2">
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
       <c r="B56" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="57" spans="2:2">
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="58" customFormat="1" spans="2:2">
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="2:6">
       <c r="B58" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="59" spans="2:2">
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
       <c r="B59" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="60" spans="2:2">
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
       <c r="B60" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="61" spans="2:2">
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
       <c r="B61" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="62" spans="2:2">
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
       <c r="B62" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="63" spans="2:2">
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
       <c r="B63" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="64" spans="2:2">
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
       <c r="B64" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="65" spans="2:2">
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
       <c r="B65" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="66" spans="2:2">
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
       <c r="B66" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="67" spans="2:2">
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
       <c r="B67" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="68" spans="2:2">
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
       <c r="B68" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="69" spans="2:2">
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
       <c r="B69" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="70" spans="2:2">
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
       <c r="B70" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="2:2">
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
       <c r="B71" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="72" spans="2:2">
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
       <c r="B72" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="73" spans="2:2">
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
       <c r="B73" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="74" spans="2:2">
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
       <c r="B74" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="75" spans="2:2">
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
       <c r="B75" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="76" spans="2:2">
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
       <c r="B76" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="77" spans="2:2">
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
       <c r="B77" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="78" spans="2:2">
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
       <c r="B78" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="79" spans="2:2">
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
       <c r="B79" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="80" spans="2:2">
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
       <c r="B80" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
       <c r="B81" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
       <c r="B82" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="83" spans="2:2">
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
       <c r="B83" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="84" spans="2:2">
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
       <c r="B84" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="85" spans="2:2">
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
       <c r="B85" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="86" spans="2:2">
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
       <c r="B86" t="s">
         <v>315</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="2:6">
@@ -4303,12 +4714,24 @@
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:6">
       <c r="B93" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="94" spans="2:4">
+      <c r="C93" t="s">
+        <v>223</v>
+      </c>
+      <c r="D93">
+        <v>1988</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
       <c r="B94" t="s">
         <v>326</v>
       </c>
@@ -4318,8 +4741,14 @@
       <c r="D94">
         <v>1985</v>
       </c>
-    </row>
-    <row r="95" spans="2:4">
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
       <c r="B95" t="s">
         <v>327</v>
       </c>
@@ -4329,8 +4758,14 @@
       <c r="D95">
         <v>1990</v>
       </c>
-    </row>
-    <row r="96" spans="2:4">
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
       <c r="B96" t="s">
         <v>328</v>
       </c>
@@ -4340,13 +4775,31 @@
       <c r="D96">
         <v>1985</v>
       </c>
-    </row>
-    <row r="97" spans="2:2">
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
       <c r="B97" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="98" spans="2:4">
+      <c r="C97" t="s">
+        <v>320</v>
+      </c>
+      <c r="D97">
+        <v>1991</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
       <c r="B98" t="s">
         <v>200</v>
       </c>
@@ -4356,55 +4809,181 @@
       <c r="D98">
         <v>1980</v>
       </c>
-    </row>
-    <row r="99" spans="2:2">
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
       <c r="B99" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="100" spans="2:2">
+      <c r="C99" t="s">
+        <v>251</v>
+      </c>
+      <c r="D99">
+        <v>1988</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
       <c r="B100" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="101" spans="2:2">
+      <c r="C100" t="s">
+        <v>332</v>
+      </c>
+      <c r="D100">
+        <v>1990</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
       <c r="B101" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
+        <v>333</v>
+      </c>
+      <c r="C101" t="s">
+        <v>73</v>
+      </c>
+      <c r="D101">
+        <v>1982</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
       <c r="B102" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="103" spans="2:2">
+      <c r="C102" t="s">
+        <v>223</v>
+      </c>
+      <c r="D102">
+        <v>1987</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
       <c r="B103" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
+        <v>334</v>
+      </c>
+      <c r="C103" t="s">
+        <v>335</v>
+      </c>
+      <c r="D103">
+        <v>1985</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
       <c r="B104" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="105" spans="2:2">
+      <c r="C104" t="s">
+        <v>336</v>
+      </c>
+      <c r="D104">
+        <v>1987</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
       <c r="B105" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
+        <v>337</v>
+      </c>
+      <c r="C105" t="s">
+        <v>324</v>
+      </c>
+      <c r="D105">
+        <v>1988</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
       <c r="B106" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
+        <v>338</v>
+      </c>
+      <c r="C106" t="s">
+        <v>229</v>
+      </c>
+      <c r="D106">
+        <v>1992</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
       <c r="B107" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
+        <v>339</v>
+      </c>
+      <c r="C107" t="s">
+        <v>324</v>
+      </c>
+      <c r="D107">
+        <v>1985</v>
+      </c>
+      <c r="E107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
       <c r="B108" t="s">
-        <v>337</v>
+        <v>340</v>
+      </c>
+      <c r="C108" t="s">
+        <v>62</v>
+      </c>
+      <c r="D108">
+        <v>1987</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="381">
   <si>
     <t>厂商</t>
   </si>
@@ -866,12 +866,18 @@
     <t>冒险岛1</t>
   </si>
   <si>
+    <t>hudson soft</t>
+  </si>
+  <si>
     <t>冒险岛2</t>
   </si>
   <si>
     <t>冒险岛3</t>
   </si>
   <si>
+    <t>冒险岛4</t>
+  </si>
+  <si>
     <t>密不可分</t>
   </si>
   <si>
@@ -1059,6 +1065,120 @@
   </si>
   <si>
     <t>古巴英雄</t>
+  </si>
+  <si>
+    <t>怪鸭历险</t>
+  </si>
+  <si>
+    <t>火箭车</t>
+  </si>
+  <si>
+    <t>火之鸟</t>
+  </si>
+  <si>
+    <t>特救指令</t>
+  </si>
+  <si>
+    <t>Bandai</t>
+  </si>
+  <si>
+    <t>加纳战机</t>
+  </si>
+  <si>
+    <t>嘉蒂外传</t>
+  </si>
+  <si>
+    <t>究极虎</t>
+  </si>
+  <si>
+    <t>taito</t>
+  </si>
+  <si>
+    <t>柯拉米世界2</t>
+  </si>
+  <si>
+    <t>快乐猫</t>
+  </si>
+  <si>
+    <t>马戏团</t>
+  </si>
+  <si>
+    <t>摩托车大赛</t>
+  </si>
+  <si>
+    <t>魔鬼总动员</t>
+  </si>
+  <si>
+    <t>南极企鹅</t>
+  </si>
+  <si>
+    <t>鸟人战队</t>
+  </si>
+  <si>
+    <t>asahi</t>
+  </si>
+  <si>
+    <t>七宝奇谋</t>
+  </si>
+  <si>
+    <t>企鹅梦物语</t>
+  </si>
+  <si>
+    <t>敲冰块</t>
+  </si>
+  <si>
+    <t>nintendo</t>
+  </si>
+  <si>
+    <t>热血格斗传说</t>
+  </si>
+  <si>
+    <t>忍者神龟1</t>
+  </si>
+  <si>
+    <t>忍者神龟2</t>
+  </si>
+  <si>
+    <t>忍者神龟3</t>
+  </si>
+  <si>
+    <t>忍者神龟传</t>
+  </si>
+  <si>
+    <t>忍者神龟格斗版</t>
+  </si>
+  <si>
+    <t>忍者蛙与双截龙</t>
+  </si>
+  <si>
+    <t>tomy</t>
+  </si>
+  <si>
+    <t>三只小猪</t>
+  </si>
+  <si>
+    <t>唐老鸭梦冒险1</t>
+  </si>
+  <si>
+    <t>唐老鸭梦冒险2</t>
+  </si>
+  <si>
+    <t>脱狱2</t>
+  </si>
+  <si>
+    <t>kyugo</t>
+  </si>
+  <si>
+    <t>外星战将</t>
+  </si>
+  <si>
+    <t>顽皮狗</t>
+  </si>
+  <si>
+    <t>atlis</t>
+  </si>
+  <si>
+    <t>未来战士</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1102,6 +1222,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1112,6 +1239,51 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,38 +1313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1195,30 +1338,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,13 +1359,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,103 +1455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,7 +1479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,31 +1497,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,7 +1539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,6 +1573,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1468,26 +1603,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1525,8 +1645,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1538,10 +1658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1550,37 +1670,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1589,94 +1703,100 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3533,10 +3653,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4014,6 +4134,12 @@
       <c r="B32" t="s">
         <v>152</v>
       </c>
+      <c r="C32" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32">
+        <v>1990</v>
+      </c>
       <c r="E32" t="s">
         <v>11</v>
       </c>
@@ -4146,6 +4272,9 @@
       <c r="B44" t="s">
         <v>275</v>
       </c>
+      <c r="C44" t="s">
+        <v>276</v>
+      </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
@@ -4155,6 +4284,9 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" t="s">
         <v>276</v>
       </c>
       <c r="E45" t="s">
@@ -4166,7 +4298,10 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>277</v>
+        <v>278</v>
+      </c>
+      <c r="C46" t="s">
+        <v>276</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -4177,7 +4312,13 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="C47" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47">
+        <v>1994</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -4188,7 +4329,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -4199,7 +4340,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -4210,7 +4351,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -4221,7 +4362,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -4232,7 +4373,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -4243,7 +4384,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -4254,7 +4395,7 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" t="s">
-        <v>204</v>
+        <v>286</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -4265,7 +4406,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" t="s">
-        <v>285</v>
+        <v>204</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -4276,7 +4417,7 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -4287,7 +4428,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -4296,9 +4437,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" customFormat="1" spans="2:6">
+    <row r="58" spans="2:6">
       <c r="B58" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -4307,9 +4448,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" customFormat="1" spans="2:6">
       <c r="B59" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -4320,7 +4461,7 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -4331,7 +4472,7 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -4342,7 +4483,7 @@
     </row>
     <row r="62" spans="2:6">
       <c r="B62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -4353,7 +4494,7 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -4364,7 +4505,7 @@
     </row>
     <row r="64" spans="2:6">
       <c r="B64" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -4375,7 +4516,7 @@
     </row>
     <row r="65" spans="2:6">
       <c r="B65" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -4386,7 +4527,7 @@
     </row>
     <row r="66" spans="2:6">
       <c r="B66" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -4397,7 +4538,7 @@
     </row>
     <row r="67" spans="2:6">
       <c r="B67" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -4408,7 +4549,7 @@
     </row>
     <row r="68" spans="2:6">
       <c r="B68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -4419,7 +4560,7 @@
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -4430,7 +4571,7 @@
     </row>
     <row r="70" spans="2:6">
       <c r="B70" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -4441,7 +4582,7 @@
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -4452,7 +4593,7 @@
     </row>
     <row r="72" spans="2:6">
       <c r="B72" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -4463,7 +4604,7 @@
     </row>
     <row r="73" spans="2:6">
       <c r="B73" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -4474,7 +4615,7 @@
     </row>
     <row r="74" spans="2:6">
       <c r="B74" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -4485,7 +4626,7 @@
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -4496,7 +4637,7 @@
     </row>
     <row r="76" spans="2:6">
       <c r="B76" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -4507,7 +4648,7 @@
     </row>
     <row r="77" spans="2:6">
       <c r="B77" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -4518,7 +4659,7 @@
     </row>
     <row r="78" spans="2:6">
       <c r="B78" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -4529,7 +4670,7 @@
     </row>
     <row r="79" spans="2:6">
       <c r="B79" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
@@ -4540,7 +4681,7 @@
     </row>
     <row r="80" spans="2:6">
       <c r="B80" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -4551,7 +4692,7 @@
     </row>
     <row r="81" spans="2:6">
       <c r="B81" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -4562,7 +4703,7 @@
     </row>
     <row r="82" spans="2:6">
       <c r="B82" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -4573,7 +4714,7 @@
     </row>
     <row r="83" spans="2:6">
       <c r="B83" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
@@ -4584,7 +4725,7 @@
     </row>
     <row r="84" spans="2:6">
       <c r="B84" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -4595,7 +4736,7 @@
     </row>
     <row r="85" spans="2:6">
       <c r="B85" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -4606,7 +4747,7 @@
     </row>
     <row r="86" spans="2:6">
       <c r="B86" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -4616,28 +4757,25 @@
       </c>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" t="s">
+        <v>317</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C88" t="s">
         <v>240</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>1987</v>
-      </c>
-      <c r="E87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88" t="s">
-        <v>317</v>
-      </c>
-      <c r="D88">
-        <v>1991</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
@@ -4648,13 +4786,10 @@
     </row>
     <row r="89" spans="2:6">
       <c r="B89" t="s">
-        <v>318</v>
-      </c>
-      <c r="C89" t="s">
-        <v>229</v>
+        <v>319</v>
       </c>
       <c r="D89">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
@@ -4665,13 +4800,13 @@
     </row>
     <row r="90" spans="2:6">
       <c r="B90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C90" t="s">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="D90">
-        <v>1993</v>
+        <v>1984</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
@@ -4688,7 +4823,7 @@
         <v>322</v>
       </c>
       <c r="D91">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -4705,7 +4840,7 @@
         <v>324</v>
       </c>
       <c r="D92">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -4719,10 +4854,10 @@
         <v>325</v>
       </c>
       <c r="C93" t="s">
-        <v>223</v>
+        <v>326</v>
       </c>
       <c r="D93">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -4733,13 +4868,13 @@
     </row>
     <row r="94" spans="2:6">
       <c r="B94" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D94">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
@@ -4750,13 +4885,13 @@
     </row>
     <row r="95" spans="2:6">
       <c r="B95" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C95" t="s">
-        <v>324</v>
+        <v>229</v>
       </c>
       <c r="D95">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -4767,13 +4902,13 @@
     </row>
     <row r="96" spans="2:6">
       <c r="B96" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C96" t="s">
-        <v>229</v>
+        <v>326</v>
       </c>
       <c r="D96">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
@@ -4784,13 +4919,13 @@
     </row>
     <row r="97" spans="2:6">
       <c r="B97" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C97" t="s">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="D97">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
@@ -4801,13 +4936,13 @@
     </row>
     <row r="98" spans="2:6">
       <c r="B98" t="s">
-        <v>200</v>
+        <v>331</v>
       </c>
       <c r="C98" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D98">
-        <v>1980</v>
+        <v>1991</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
@@ -4818,13 +4953,13 @@
     </row>
     <row r="99" spans="2:6">
       <c r="B99" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>251</v>
+        <v>332</v>
       </c>
       <c r="D99">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -4835,13 +4970,13 @@
     </row>
     <row r="100" spans="2:6">
       <c r="B100" t="s">
-        <v>331</v>
+        <v>148</v>
       </c>
       <c r="C100" t="s">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="D100">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -4855,10 +4990,10 @@
         <v>333</v>
       </c>
       <c r="C101" t="s">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="D101">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -4869,13 +5004,13 @@
     </row>
     <row r="102" spans="2:6">
       <c r="B102" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="D102">
-        <v>1987</v>
+        <v>1982</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -4886,13 +5021,13 @@
     </row>
     <row r="103" spans="2:6">
       <c r="B103" t="s">
-        <v>334</v>
+        <v>219</v>
       </c>
       <c r="C103" t="s">
-        <v>335</v>
+        <v>223</v>
       </c>
       <c r="D103">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
@@ -4903,13 +5038,13 @@
     </row>
     <row r="104" spans="2:6">
       <c r="B104" t="s">
-        <v>189</v>
+        <v>336</v>
       </c>
       <c r="C104" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D104">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -4920,13 +5055,13 @@
     </row>
     <row r="105" spans="2:6">
       <c r="B105" t="s">
-        <v>337</v>
+        <v>189</v>
       </c>
       <c r="C105" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="D105">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -4937,13 +5072,13 @@
     </row>
     <row r="106" spans="2:6">
       <c r="B106" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C106" t="s">
-        <v>229</v>
+        <v>326</v>
       </c>
       <c r="D106">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -4954,13 +5089,13 @@
     </row>
     <row r="107" spans="2:6">
       <c r="B107" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C107" t="s">
-        <v>324</v>
+        <v>229</v>
       </c>
       <c r="D107">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -4971,18 +5106,721 @@
     </row>
     <row r="108" spans="2:6">
       <c r="B108" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C108" t="s">
+        <v>326</v>
+      </c>
+      <c r="D108">
+        <v>1985</v>
+      </c>
+      <c r="E108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" t="s">
+        <v>342</v>
+      </c>
+      <c r="C109" t="s">
         <v>62</v>
       </c>
-      <c r="D108">
+      <c r="D109">
         <v>1987</v>
       </c>
-      <c r="E108" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="E109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" t="s">
+        <v>343</v>
+      </c>
+      <c r="C110" t="s">
+        <v>229</v>
+      </c>
+      <c r="D110">
+        <v>1992</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" t="s">
+        <v>186</v>
+      </c>
+      <c r="C111" t="s">
+        <v>229</v>
+      </c>
+      <c r="D111">
+        <v>1988</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" t="s">
+        <v>251</v>
+      </c>
+      <c r="D112">
+        <v>1988</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" t="s">
+        <v>344</v>
+      </c>
+      <c r="C113" t="s">
+        <v>251</v>
+      </c>
+      <c r="D113">
+        <v>1985</v>
+      </c>
+      <c r="E113" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" t="s">
+        <v>345</v>
+      </c>
+      <c r="C114" t="s">
+        <v>251</v>
+      </c>
+      <c r="D114">
+        <v>1987</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" t="s">
+        <v>346</v>
+      </c>
+      <c r="C115" t="s">
+        <v>347</v>
+      </c>
+      <c r="D115">
+        <v>1991</v>
+      </c>
+      <c r="E115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" t="s">
+        <v>348</v>
+      </c>
+      <c r="C116" t="s">
+        <v>229</v>
+      </c>
+      <c r="D116">
+        <v>1990</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" t="s">
+        <v>349</v>
+      </c>
+      <c r="C117" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117">
+        <v>1988</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" t="s">
+        <v>350</v>
+      </c>
+      <c r="C118" t="s">
+        <v>351</v>
+      </c>
+      <c r="D118">
+        <v>1989</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" t="s">
+        <v>352</v>
+      </c>
+      <c r="C119" t="s">
+        <v>251</v>
+      </c>
+      <c r="D119">
+        <v>1991</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" t="s">
+        <v>353</v>
+      </c>
+      <c r="C120" t="s">
+        <v>73</v>
+      </c>
+      <c r="D120">
+        <v>1983</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121" t="s">
+        <v>65</v>
+      </c>
+      <c r="D121">
+        <v>1987</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" t="s">
+        <v>187</v>
+      </c>
+      <c r="C122" t="s">
+        <v>251</v>
+      </c>
+      <c r="D122">
+        <v>2003</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" t="s">
+        <v>354</v>
+      </c>
+      <c r="C123" t="s">
+        <v>251</v>
+      </c>
+      <c r="D123">
+        <v>1986</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" t="s">
+        <v>355</v>
+      </c>
+      <c r="E124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" t="s">
+        <v>356</v>
+      </c>
+      <c r="C125" t="s">
+        <v>229</v>
+      </c>
+      <c r="D125">
+        <v>1991</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" t="s">
+        <v>357</v>
+      </c>
+      <c r="C126" t="s">
+        <v>251</v>
+      </c>
+      <c r="D126">
+        <v>1985</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" t="s">
+        <v>358</v>
+      </c>
+      <c r="C127" t="s">
+        <v>359</v>
+      </c>
+      <c r="D127">
+        <v>1991</v>
+      </c>
+      <c r="E127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" t="s">
+        <v>360</v>
+      </c>
+      <c r="C128" t="s">
+        <v>251</v>
+      </c>
+      <c r="D128">
+        <v>1986</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" t="s">
+        <v>361</v>
+      </c>
+      <c r="C129" t="s">
+        <v>251</v>
+      </c>
+      <c r="D129">
+        <v>1991</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" t="s">
+        <v>362</v>
+      </c>
+      <c r="C130" t="s">
+        <v>363</v>
+      </c>
+      <c r="D130">
+        <v>1984</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" t="s">
+        <v>364</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" t="s">
+        <v>365</v>
+      </c>
+      <c r="C132" t="s">
+        <v>251</v>
+      </c>
+      <c r="D132">
+        <v>1990</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" t="s">
+        <v>366</v>
+      </c>
+      <c r="C133" t="s">
+        <v>251</v>
+      </c>
+      <c r="D133">
+        <v>1990</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="B134" t="s">
+        <v>367</v>
+      </c>
+      <c r="C134" t="s">
+        <v>251</v>
+      </c>
+      <c r="D134">
+        <v>1992</v>
+      </c>
+      <c r="E134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="B135" t="s">
+        <v>368</v>
+      </c>
+      <c r="C135" t="s">
+        <v>251</v>
+      </c>
+      <c r="D135">
+        <v>1989</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6">
+      <c r="B136" t="s">
+        <v>369</v>
+      </c>
+      <c r="C136" t="s">
+        <v>251</v>
+      </c>
+      <c r="D136">
+        <v>1993</v>
+      </c>
+      <c r="E136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="B137" t="s">
+        <v>370</v>
+      </c>
+      <c r="C137" t="s">
+        <v>229</v>
+      </c>
+      <c r="D137">
+        <v>1993</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" t="s">
+        <v>371</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" t="s">
+        <v>372</v>
+      </c>
+      <c r="C139" t="s">
+        <v>251</v>
+      </c>
+      <c r="D139">
+        <v>1985</v>
+      </c>
+      <c r="E139" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="B140" t="s">
+        <v>188</v>
+      </c>
+      <c r="C140" t="s">
+        <v>251</v>
+      </c>
+      <c r="D140">
+        <v>1987</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6">
+      <c r="B141" t="s">
+        <v>373</v>
+      </c>
+      <c r="E141" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" t="s">
+        <v>374</v>
+      </c>
+      <c r="E142" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" t="s">
+        <v>156</v>
+      </c>
+      <c r="C143" t="s">
+        <v>351</v>
+      </c>
+      <c r="D143">
+        <v>1991</v>
+      </c>
+      <c r="E143" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" t="s">
+        <v>62</v>
+      </c>
+      <c r="D144">
+        <v>1989</v>
+      </c>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6">
+      <c r="B145" t="s">
+        <v>375</v>
+      </c>
+      <c r="C145" t="s">
+        <v>376</v>
+      </c>
+      <c r="D145">
+        <v>1990</v>
+      </c>
+      <c r="E145" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146" t="s">
+        <v>377</v>
+      </c>
+      <c r="C146" t="s">
+        <v>251</v>
+      </c>
+      <c r="D146">
+        <v>1991</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" t="s">
+        <v>378</v>
+      </c>
+      <c r="C147" t="s">
+        <v>379</v>
+      </c>
+      <c r="D147">
+        <v>1991</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6">
+      <c r="B148" t="s">
+        <v>380</v>
+      </c>
+      <c r="E148" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6">
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="150" spans="5:6">
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" spans="5:6">
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="5:6">
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="153" spans="5:6">
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="154" spans="5:6">
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="155" spans="5:6">
+      <c r="E155" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" t="s">
         <v>112</v>
       </c>
     </row>

--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="4"/>
+    <workbookView windowWidth="11550" windowHeight="6555" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="家用机" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="422">
   <si>
     <t>厂商</t>
   </si>
@@ -827,6 +827,12 @@
     <t>坦克大战</t>
   </si>
   <si>
+    <t>烟山坦克大战</t>
+  </si>
+  <si>
+    <t>ys</t>
+  </si>
+  <si>
     <t>生化危机1</t>
   </si>
   <si>
@@ -1179,6 +1185,123 @@
   </si>
   <si>
     <t>未来战士</t>
+  </si>
+  <si>
+    <t>王子外传</t>
+  </si>
+  <si>
+    <t>小蜜蜂</t>
+  </si>
+  <si>
+    <t>影子传说</t>
+  </si>
+  <si>
+    <t>越野机车</t>
+  </si>
+  <si>
+    <t>中国象棋</t>
+  </si>
+  <si>
+    <t>桌球</t>
+  </si>
+  <si>
+    <t>井字棋XO</t>
+  </si>
+  <si>
+    <t>sly dog studios</t>
+  </si>
+  <si>
+    <t>三角战机</t>
+  </si>
+  <si>
+    <t>smkdan</t>
+  </si>
+  <si>
+    <t>鲨鱼来了</t>
+  </si>
+  <si>
+    <t>mattel</t>
+  </si>
+  <si>
+    <t>佩格斯棋</t>
+  </si>
+  <si>
+    <t>玻璃城</t>
+  </si>
+  <si>
+    <t>疯狂跳珠</t>
+  </si>
+  <si>
+    <t>mark crane</t>
+  </si>
+  <si>
+    <t>火凤凰</t>
+  </si>
+  <si>
+    <t>jaleco</t>
+  </si>
+  <si>
+    <t>星际射击方块</t>
+  </si>
+  <si>
+    <t>hwang jiun.ming</t>
+  </si>
+  <si>
+    <t>射气泡</t>
+  </si>
+  <si>
+    <t>caltaon ind.inc</t>
+  </si>
+  <si>
+    <t>鸡蛋迪兹冲冲冲</t>
+  </si>
+  <si>
+    <t>codemasters</t>
+  </si>
+  <si>
+    <t>梦幻斗士</t>
+  </si>
+  <si>
+    <t>asder</t>
+  </si>
+  <si>
+    <t>警戒</t>
+  </si>
+  <si>
+    <t>超级英雄</t>
+  </si>
+  <si>
+    <t>修路工</t>
+  </si>
+  <si>
+    <t>兔子村</t>
+  </si>
+  <si>
+    <t>警察与小偷</t>
+  </si>
+  <si>
+    <t>镜子恶魔世界</t>
+  </si>
+  <si>
+    <t>蛋岛</t>
+  </si>
+  <si>
+    <t>杯塔谜题</t>
+  </si>
+  <si>
+    <t>鱼的故事</t>
+  </si>
+  <si>
+    <t>变形赛车</t>
+  </si>
+  <si>
+    <t>75合1梦轮</t>
+  </si>
+  <si>
+    <t>手柄英雄1</t>
+  </si>
+  <si>
+    <t>手柄英雄2</t>
   </si>
 </sst>
 </file>
@@ -1186,9 +1309,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1201,14 +1324,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1217,13 +1384,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1244,70 +1404,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1322,25 +1428,42 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1359,13 +1482,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,19 +1584,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,37 +1620,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,73 +1650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,25 +1662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1550,56 +1673,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1627,6 +1700,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1637,6 +1730,36 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1658,10 +1781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1670,133 +1793,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3653,10 +3776,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4112,6 +4235,12 @@
       <c r="B30" t="s">
         <v>262</v>
       </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30">
+        <v>1980</v>
+      </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
@@ -4119,26 +4248,20 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:4">
       <c r="B31" t="s">
         <v>263</v>
       </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>112</v>
+      <c r="C31" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31">
+        <v>1990</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" t="s">
-        <v>240</v>
-      </c>
-      <c r="D32">
-        <v>1990</v>
+        <v>265</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -4149,7 +4272,13 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" t="s">
-        <v>264</v>
+        <v>152</v>
+      </c>
+      <c r="C33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33">
+        <v>1990</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -4160,7 +4289,7 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -4171,7 +4300,7 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -4182,7 +4311,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -4193,7 +4322,7 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -4204,7 +4333,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -4215,7 +4344,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -4226,7 +4355,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -4237,7 +4366,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -4248,7 +4377,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -4259,7 +4388,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -4270,9 +4399,6 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" t="s">
-        <v>275</v>
-      </c>
-      <c r="C44" t="s">
         <v>276</v>
       </c>
       <c r="E44" t="s">
@@ -4287,7 +4413,7 @@
         <v>277</v>
       </c>
       <c r="C45" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -4298,10 +4424,10 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
+        <v>279</v>
+      </c>
+      <c r="C46" t="s">
         <v>278</v>
-      </c>
-      <c r="C46" t="s">
-        <v>276</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -4312,13 +4438,10 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C47" t="s">
-        <v>276</v>
-      </c>
-      <c r="D47">
-        <v>1994</v>
+        <v>278</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -4329,7 +4452,13 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+      <c r="C48" t="s">
+        <v>278</v>
+      </c>
+      <c r="D48">
+        <v>1994</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -4340,7 +4469,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -4351,7 +4480,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -4362,7 +4491,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -4373,7 +4502,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -4384,7 +4513,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -4395,7 +4524,7 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -4406,7 +4535,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -4417,7 +4546,7 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -4428,7 +4557,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -4439,7 +4568,7 @@
     </row>
     <row r="58" spans="2:6">
       <c r="B58" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -4448,9 +4577,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" customFormat="1" spans="2:6">
+    <row r="59" spans="2:6">
       <c r="B59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -4459,9 +4588,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" customFormat="1" spans="2:6">
       <c r="B60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -4472,7 +4601,7 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -4483,7 +4612,7 @@
     </row>
     <row r="62" spans="2:6">
       <c r="B62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -4494,7 +4623,7 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -4505,7 +4634,7 @@
     </row>
     <row r="64" spans="2:6">
       <c r="B64" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -4516,7 +4645,7 @@
     </row>
     <row r="65" spans="2:6">
       <c r="B65" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -4527,7 +4656,7 @@
     </row>
     <row r="66" spans="2:6">
       <c r="B66" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -4538,7 +4667,7 @@
     </row>
     <row r="67" spans="2:6">
       <c r="B67" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -4549,7 +4678,7 @@
     </row>
     <row r="68" spans="2:6">
       <c r="B68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -4560,7 +4689,7 @@
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -4571,7 +4700,7 @@
     </row>
     <row r="70" spans="2:6">
       <c r="B70" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -4582,7 +4711,7 @@
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -4593,7 +4722,7 @@
     </row>
     <row r="72" spans="2:6">
       <c r="B72" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -4604,7 +4733,7 @@
     </row>
     <row r="73" spans="2:6">
       <c r="B73" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -4615,7 +4744,7 @@
     </row>
     <row r="74" spans="2:6">
       <c r="B74" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -4626,7 +4755,13 @@
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
-        <v>306</v>
+        <v>166</v>
+      </c>
+      <c r="C75" t="s">
+        <v>278</v>
+      </c>
+      <c r="D75">
+        <v>1985</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -4736,7 +4871,7 @@
     </row>
     <row r="85" spans="2:6">
       <c r="B85" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -4747,7 +4882,7 @@
     </row>
     <row r="86" spans="2:6">
       <c r="B86" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -4758,7 +4893,7 @@
     </row>
     <row r="87" spans="2:6">
       <c r="B87" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
@@ -4768,14 +4903,8 @@
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
         <v>318</v>
-      </c>
-      <c r="C88" t="s">
-        <v>240</v>
-      </c>
-      <c r="D88">
-        <v>1987</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
@@ -4788,9 +4917,6 @@
       <c r="B89" t="s">
         <v>319</v>
       </c>
-      <c r="D89">
-        <v>1991</v>
-      </c>
       <c r="E89" t="s">
         <v>11</v>
       </c>
@@ -4799,14 +4925,14 @@
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>320</v>
       </c>
       <c r="C90" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="D90">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
@@ -4819,11 +4945,8 @@
       <c r="B91" t="s">
         <v>321</v>
       </c>
-      <c r="C91" t="s">
-        <v>322</v>
-      </c>
       <c r="D91">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -4834,13 +4957,13 @@
     </row>
     <row r="92" spans="2:6">
       <c r="B92" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C92" t="s">
-        <v>324</v>
+        <v>229</v>
       </c>
       <c r="D92">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -4851,13 +4974,13 @@
     </row>
     <row r="93" spans="2:6">
       <c r="B93" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C93" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D93">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -4868,13 +4991,13 @@
     </row>
     <row r="94" spans="2:6">
       <c r="B94" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C94" t="s">
-        <v>223</v>
+        <v>326</v>
       </c>
       <c r="D94">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
@@ -4885,13 +5008,13 @@
     </row>
     <row r="95" spans="2:6">
       <c r="B95" t="s">
+        <v>327</v>
+      </c>
+      <c r="C95" t="s">
         <v>328</v>
       </c>
-      <c r="C95" t="s">
-        <v>229</v>
-      </c>
       <c r="D95">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -4905,10 +5028,10 @@
         <v>329</v>
       </c>
       <c r="C96" t="s">
-        <v>326</v>
+        <v>223</v>
       </c>
       <c r="D96">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
@@ -4939,10 +5062,10 @@
         <v>331</v>
       </c>
       <c r="C98" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D98">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
@@ -4953,13 +5076,13 @@
     </row>
     <row r="99" spans="2:6">
       <c r="B99" t="s">
-        <v>200</v>
+        <v>332</v>
       </c>
       <c r="C99" t="s">
-        <v>332</v>
+        <v>229</v>
       </c>
       <c r="D99">
-        <v>1980</v>
+        <v>1985</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
@@ -4970,13 +5093,13 @@
     </row>
     <row r="100" spans="2:6">
       <c r="B100" t="s">
-        <v>148</v>
+        <v>333</v>
       </c>
       <c r="C100" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
       <c r="D100">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -4987,13 +5110,13 @@
     </row>
     <row r="101" spans="2:6">
       <c r="B101" t="s">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="C101" t="s">
         <v>334</v>
       </c>
       <c r="D101">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -5004,13 +5127,13 @@
     </row>
     <row r="102" spans="2:6">
       <c r="B102" t="s">
-        <v>335</v>
+        <v>148</v>
       </c>
       <c r="C102" t="s">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="D102">
-        <v>1982</v>
+        <v>1988</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -5021,13 +5144,13 @@
     </row>
     <row r="103" spans="2:6">
       <c r="B103" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="C103" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
       <c r="D103">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
@@ -5038,13 +5161,13 @@
     </row>
     <row r="104" spans="2:6">
       <c r="B104" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C104" t="s">
-        <v>337</v>
+        <v>73</v>
       </c>
       <c r="D104">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -5055,10 +5178,10 @@
     </row>
     <row r="105" spans="2:6">
       <c r="B105" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="C105" t="s">
-        <v>338</v>
+        <v>223</v>
       </c>
       <c r="D105">
         <v>1987</v>
@@ -5072,13 +5195,13 @@
     </row>
     <row r="106" spans="2:6">
       <c r="B106" t="s">
+        <v>338</v>
+      </c>
+      <c r="C106" t="s">
         <v>339</v>
       </c>
-      <c r="C106" t="s">
-        <v>326</v>
-      </c>
       <c r="D106">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -5089,13 +5212,13 @@
     </row>
     <row r="107" spans="2:6">
       <c r="B107" t="s">
+        <v>189</v>
+      </c>
+      <c r="C107" t="s">
         <v>340</v>
       </c>
-      <c r="C107" t="s">
-        <v>229</v>
-      </c>
       <c r="D107">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -5109,10 +5232,10 @@
         <v>341</v>
       </c>
       <c r="C108" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D108">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -5126,10 +5249,10 @@
         <v>342</v>
       </c>
       <c r="C109" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="D109">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -5143,10 +5266,10 @@
         <v>343</v>
       </c>
       <c r="C110" t="s">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="D110">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
@@ -5157,13 +5280,13 @@
     </row>
     <row r="111" spans="2:6">
       <c r="B111" t="s">
-        <v>186</v>
+        <v>344</v>
       </c>
       <c r="C111" t="s">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="D111">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -5174,13 +5297,13 @@
     </row>
     <row r="112" spans="2:6">
       <c r="B112" t="s">
-        <v>145</v>
+        <v>345</v>
       </c>
       <c r="C112" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D112">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
@@ -5191,13 +5314,13 @@
     </row>
     <row r="113" spans="2:6">
       <c r="B113" t="s">
-        <v>344</v>
+        <v>186</v>
       </c>
       <c r="C113" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D113">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -5208,13 +5331,13 @@
     </row>
     <row r="114" spans="2:6">
       <c r="B114" t="s">
-        <v>345</v>
+        <v>145</v>
       </c>
       <c r="C114" t="s">
         <v>251</v>
       </c>
       <c r="D114">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
@@ -5228,10 +5351,10 @@
         <v>346</v>
       </c>
       <c r="C115" t="s">
-        <v>347</v>
+        <v>251</v>
       </c>
       <c r="D115">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
@@ -5242,13 +5365,13 @@
     </row>
     <row r="116" spans="2:6">
       <c r="B116" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C116" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="D116">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
@@ -5259,13 +5382,13 @@
     </row>
     <row r="117" spans="2:6">
       <c r="B117" t="s">
+        <v>348</v>
+      </c>
+      <c r="C117" t="s">
         <v>349</v>
       </c>
-      <c r="C117" t="s">
-        <v>127</v>
-      </c>
       <c r="D117">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
@@ -5279,10 +5402,10 @@
         <v>350</v>
       </c>
       <c r="C118" t="s">
-        <v>351</v>
+        <v>229</v>
       </c>
       <c r="D118">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
@@ -5293,13 +5416,13 @@
     </row>
     <row r="119" spans="2:6">
       <c r="B119" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C119" t="s">
-        <v>251</v>
+        <v>127</v>
       </c>
       <c r="D119">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
@@ -5310,13 +5433,13 @@
     </row>
     <row r="120" spans="2:6">
       <c r="B120" t="s">
+        <v>352</v>
+      </c>
+      <c r="C120" t="s">
         <v>353</v>
       </c>
-      <c r="C120" t="s">
-        <v>73</v>
-      </c>
       <c r="D120">
-        <v>1983</v>
+        <v>1989</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -5327,13 +5450,13 @@
     </row>
     <row r="121" spans="2:6">
       <c r="B121" t="s">
-        <v>150</v>
+        <v>354</v>
       </c>
       <c r="C121" t="s">
-        <v>65</v>
+        <v>251</v>
       </c>
       <c r="D121">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
@@ -5344,13 +5467,13 @@
     </row>
     <row r="122" spans="2:6">
       <c r="B122" t="s">
-        <v>187</v>
+        <v>355</v>
       </c>
       <c r="C122" t="s">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="D122">
-        <v>2003</v>
+        <v>1983</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
@@ -5361,13 +5484,13 @@
     </row>
     <row r="123" spans="2:6">
       <c r="B123" t="s">
-        <v>354</v>
+        <v>150</v>
       </c>
       <c r="C123" t="s">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="D123">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
@@ -5378,7 +5501,13 @@
     </row>
     <row r="124" spans="2:6">
       <c r="B124" t="s">
-        <v>355</v>
+        <v>187</v>
+      </c>
+      <c r="C124" t="s">
+        <v>251</v>
+      </c>
+      <c r="D124">
+        <v>2003</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
@@ -5392,10 +5521,10 @@
         <v>356</v>
       </c>
       <c r="C125" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="D125">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
@@ -5408,12 +5537,6 @@
       <c r="B126" t="s">
         <v>357</v>
       </c>
-      <c r="C126" t="s">
-        <v>251</v>
-      </c>
-      <c r="D126">
-        <v>1985</v>
-      </c>
       <c r="E126" t="s">
         <v>11</v>
       </c>
@@ -5426,7 +5549,7 @@
         <v>358</v>
       </c>
       <c r="C127" t="s">
-        <v>359</v>
+        <v>229</v>
       </c>
       <c r="D127">
         <v>1991</v>
@@ -5440,13 +5563,13 @@
     </row>
     <row r="128" spans="2:6">
       <c r="B128" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C128" t="s">
         <v>251</v>
       </c>
       <c r="D128">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
@@ -5457,10 +5580,10 @@
     </row>
     <row r="129" spans="2:6">
       <c r="B129" t="s">
+        <v>360</v>
+      </c>
+      <c r="C129" t="s">
         <v>361</v>
-      </c>
-      <c r="C129" t="s">
-        <v>251</v>
       </c>
       <c r="D129">
         <v>1991</v>
@@ -5477,10 +5600,10 @@
         <v>362</v>
       </c>
       <c r="C130" t="s">
-        <v>363</v>
+        <v>251</v>
       </c>
       <c r="D130">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -5491,7 +5614,13 @@
     </row>
     <row r="131" spans="2:6">
       <c r="B131" t="s">
-        <v>364</v>
+        <v>363</v>
+      </c>
+      <c r="C131" t="s">
+        <v>251</v>
+      </c>
+      <c r="D131">
+        <v>1991</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
@@ -5502,13 +5631,13 @@
     </row>
     <row r="132" spans="2:6">
       <c r="B132" t="s">
+        <v>364</v>
+      </c>
+      <c r="C132" t="s">
         <v>365</v>
       </c>
-      <c r="C132" t="s">
-        <v>251</v>
-      </c>
       <c r="D132">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
@@ -5521,12 +5650,6 @@
       <c r="B133" t="s">
         <v>366</v>
       </c>
-      <c r="C133" t="s">
-        <v>251</v>
-      </c>
-      <c r="D133">
-        <v>1990</v>
-      </c>
       <c r="E133" t="s">
         <v>11</v>
       </c>
@@ -5542,7 +5665,7 @@
         <v>251</v>
       </c>
       <c r="D134">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -5559,7 +5682,7 @@
         <v>251</v>
       </c>
       <c r="D135">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
@@ -5576,7 +5699,7 @@
         <v>251</v>
       </c>
       <c r="D136">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
@@ -5590,10 +5713,10 @@
         <v>370</v>
       </c>
       <c r="C137" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="D137">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
@@ -5604,10 +5727,13 @@
     </row>
     <row r="138" spans="2:6">
       <c r="B138" t="s">
-        <v>154</v>
+        <v>371</v>
       </c>
       <c r="C138" t="s">
-        <v>371</v>
+        <v>251</v>
+      </c>
+      <c r="D138">
+        <v>1993</v>
       </c>
       <c r="E138" t="s">
         <v>11</v>
@@ -5621,10 +5747,10 @@
         <v>372</v>
       </c>
       <c r="C139" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D139">
-        <v>1985</v>
+        <v>1993</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
@@ -5635,13 +5761,10 @@
     </row>
     <row r="140" spans="2:6">
       <c r="B140" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="C140" t="s">
-        <v>251</v>
-      </c>
-      <c r="D140">
-        <v>1987</v>
+        <v>373</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -5652,7 +5775,13 @@
     </row>
     <row r="141" spans="2:6">
       <c r="B141" t="s">
-        <v>373</v>
+        <v>374</v>
+      </c>
+      <c r="C141" t="s">
+        <v>251</v>
+      </c>
+      <c r="D141">
+        <v>1985</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -5663,7 +5792,13 @@
     </row>
     <row r="142" spans="2:6">
       <c r="B142" t="s">
-        <v>374</v>
+        <v>188</v>
+      </c>
+      <c r="C142" t="s">
+        <v>251</v>
+      </c>
+      <c r="D142">
+        <v>1987</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
@@ -5674,13 +5809,7 @@
     </row>
     <row r="143" spans="2:6">
       <c r="B143" t="s">
-        <v>156</v>
-      </c>
-      <c r="C143" t="s">
-        <v>351</v>
-      </c>
-      <c r="D143">
-        <v>1991</v>
+        <v>375</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
@@ -5691,13 +5820,7 @@
     </row>
     <row r="144" spans="2:6">
       <c r="B144" t="s">
-        <v>157</v>
-      </c>
-      <c r="C144" t="s">
-        <v>62</v>
-      </c>
-      <c r="D144">
-        <v>1989</v>
+        <v>376</v>
       </c>
       <c r="E144" t="s">
         <v>11</v>
@@ -5708,13 +5831,13 @@
     </row>
     <row r="145" spans="2:6">
       <c r="B145" t="s">
-        <v>375</v>
+        <v>156</v>
       </c>
       <c r="C145" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="D145">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E145" t="s">
         <v>11</v>
@@ -5725,13 +5848,13 @@
     </row>
     <row r="146" spans="2:6">
       <c r="B146" t="s">
-        <v>377</v>
+        <v>157</v>
       </c>
       <c r="C146" t="s">
-        <v>251</v>
+        <v>62</v>
       </c>
       <c r="D146">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
@@ -5742,13 +5865,13 @@
     </row>
     <row r="147" spans="2:6">
       <c r="B147" t="s">
+        <v>377</v>
+      </c>
+      <c r="C147" t="s">
         <v>378</v>
       </c>
-      <c r="C147" t="s">
-        <v>379</v>
-      </c>
       <c r="D147">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E147" t="s">
         <v>11</v>
@@ -5759,16 +5882,31 @@
     </row>
     <row r="148" spans="2:6">
       <c r="B148" t="s">
+        <v>379</v>
+      </c>
+      <c r="C148" t="s">
+        <v>251</v>
+      </c>
+      <c r="D148">
+        <v>1991</v>
+      </c>
+      <c r="E148" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" t="s">
         <v>380</v>
       </c>
-      <c r="E148" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="149" spans="5:6">
+      <c r="C149" t="s">
+        <v>381</v>
+      </c>
+      <c r="D149">
+        <v>1991</v>
+      </c>
       <c r="E149" t="s">
         <v>11</v>
       </c>
@@ -5776,7 +5914,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="150" spans="5:6">
+    <row r="150" spans="2:6">
+      <c r="B150" t="s">
+        <v>382</v>
+      </c>
       <c r="E150" t="s">
         <v>11</v>
       </c>
@@ -5784,7 +5925,16 @@
         <v>112</v>
       </c>
     </row>
-    <row r="151" spans="5:6">
+    <row r="151" spans="2:6">
+      <c r="B151" t="s">
+        <v>383</v>
+      </c>
+      <c r="C151" t="s">
+        <v>251</v>
+      </c>
+      <c r="D151">
+        <v>1990</v>
+      </c>
       <c r="E151" t="s">
         <v>11</v>
       </c>
@@ -5792,7 +5942,16 @@
         <v>112</v>
       </c>
     </row>
-    <row r="152" spans="5:6">
+    <row r="152" spans="2:6">
+      <c r="B152" t="s">
+        <v>384</v>
+      </c>
+      <c r="C152" t="s">
+        <v>73</v>
+      </c>
+      <c r="D152">
+        <v>1984</v>
+      </c>
       <c r="E152" t="s">
         <v>11</v>
       </c>
@@ -5800,7 +5959,16 @@
         <v>112</v>
       </c>
     </row>
-    <row r="153" spans="5:6">
+    <row r="153" spans="2:6">
+      <c r="B153" t="s">
+        <v>385</v>
+      </c>
+      <c r="C153" t="s">
+        <v>353</v>
+      </c>
+      <c r="D153">
+        <v>1986</v>
+      </c>
       <c r="E153" t="s">
         <v>11</v>
       </c>
@@ -5808,7 +5976,16 @@
         <v>112</v>
       </c>
     </row>
-    <row r="154" spans="5:6">
+    <row r="154" spans="2:6">
+      <c r="B154" t="s">
+        <v>386</v>
+      </c>
+      <c r="C154" t="s">
+        <v>229</v>
+      </c>
+      <c r="D154">
+        <v>1984</v>
+      </c>
       <c r="E154" t="s">
         <v>11</v>
       </c>
@@ -5816,11 +5993,760 @@
         <v>112</v>
       </c>
     </row>
-    <row r="155" spans="5:6">
+    <row r="155" spans="2:6">
+      <c r="B155" t="s">
+        <v>193</v>
+      </c>
+      <c r="D155">
+        <v>1990</v>
+      </c>
       <c r="E155" t="s">
         <v>11</v>
       </c>
       <c r="F155" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6">
+      <c r="B156" t="s">
+        <v>387</v>
+      </c>
+      <c r="D156">
+        <v>1991</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" t="s">
+        <v>216</v>
+      </c>
+      <c r="C157" t="s">
+        <v>223</v>
+      </c>
+      <c r="D157">
+        <v>1989</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6">
+      <c r="B158" t="s">
+        <v>388</v>
+      </c>
+      <c r="E158" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6">
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" t="s">
+        <v>336</v>
+      </c>
+      <c r="D159">
+        <v>1990</v>
+      </c>
+      <c r="E159" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6">
+      <c r="B160" t="s">
+        <v>389</v>
+      </c>
+      <c r="C160" t="s">
+        <v>390</v>
+      </c>
+      <c r="D160">
+        <v>2008</v>
+      </c>
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6">
+      <c r="B161" t="s">
+        <v>391</v>
+      </c>
+      <c r="C161" t="s">
+        <v>392</v>
+      </c>
+      <c r="D161">
+        <v>2008</v>
+      </c>
+      <c r="E161" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6">
+      <c r="B162" t="s">
+        <v>393</v>
+      </c>
+      <c r="C162" t="s">
+        <v>394</v>
+      </c>
+      <c r="D162">
+        <v>1982</v>
+      </c>
+      <c r="E162" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="B163" t="s">
+        <v>395</v>
+      </c>
+      <c r="C163" t="s">
+        <v>390</v>
+      </c>
+      <c r="D163">
+        <v>2008</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6">
+      <c r="B164" t="s">
+        <v>396</v>
+      </c>
+      <c r="C164" t="s">
+        <v>73</v>
+      </c>
+      <c r="D164">
+        <v>1980</v>
+      </c>
+      <c r="E164" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6">
+      <c r="B165" t="s">
+        <v>397</v>
+      </c>
+      <c r="C165" t="s">
+        <v>398</v>
+      </c>
+      <c r="E165" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6">
+      <c r="B166" t="s">
+        <v>399</v>
+      </c>
+      <c r="C166" t="s">
+        <v>400</v>
+      </c>
+      <c r="D166">
+        <v>2009</v>
+      </c>
+      <c r="E166" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6">
+      <c r="B167" t="s">
+        <v>401</v>
+      </c>
+      <c r="C167" t="s">
+        <v>402</v>
+      </c>
+      <c r="D167">
+        <v>1990</v>
+      </c>
+      <c r="E167" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6">
+      <c r="B168" t="s">
+        <v>403</v>
+      </c>
+      <c r="C168" t="s">
+        <v>404</v>
+      </c>
+      <c r="D168">
+        <v>1992</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6">
+      <c r="B169" t="s">
+        <v>405</v>
+      </c>
+      <c r="C169" t="s">
+        <v>406</v>
+      </c>
+      <c r="E169" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170" t="s">
+        <v>407</v>
+      </c>
+      <c r="C170" t="s">
+        <v>408</v>
+      </c>
+      <c r="D170">
+        <v>1993</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6">
+      <c r="B171" t="s">
+        <v>409</v>
+      </c>
+      <c r="E171" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6">
+      <c r="B172" t="s">
+        <v>410</v>
+      </c>
+      <c r="E172" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6">
+      <c r="B173" t="s">
+        <v>411</v>
+      </c>
+      <c r="E173" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6">
+      <c r="B174" t="s">
+        <v>412</v>
+      </c>
+      <c r="E174" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" t="s">
+        <v>413</v>
+      </c>
+      <c r="E175" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="B176" t="s">
+        <v>414</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="B177" t="s">
+        <v>415</v>
+      </c>
+      <c r="E177" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178" t="s">
+        <v>416</v>
+      </c>
+      <c r="E178" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="B179" t="s">
+        <v>417</v>
+      </c>
+      <c r="E179" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="B180" t="s">
+        <v>418</v>
+      </c>
+      <c r="E180" t="s">
+        <v>11</v>
+      </c>
+      <c r="F180" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181" t="s">
+        <v>419</v>
+      </c>
+      <c r="E181" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="B182" t="s">
+        <v>420</v>
+      </c>
+      <c r="E182" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6">
+      <c r="B183" t="s">
+        <v>421</v>
+      </c>
+      <c r="E183" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="184" spans="5:6">
+      <c r="E184" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="185" spans="5:6">
+      <c r="E185" t="s">
+        <v>11</v>
+      </c>
+      <c r="F185" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="186" spans="5:6">
+      <c r="E186" t="s">
+        <v>11</v>
+      </c>
+      <c r="F186" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="187" spans="5:6">
+      <c r="E187" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="188" spans="5:6">
+      <c r="E188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="189" spans="5:6">
+      <c r="E189" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="190" spans="5:6">
+      <c r="E190" t="s">
+        <v>11</v>
+      </c>
+      <c r="F190" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="191" spans="5:6">
+      <c r="E191" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6">
+      <c r="E192" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6">
+      <c r="E193" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="194" spans="5:6">
+      <c r="E194" t="s">
+        <v>11</v>
+      </c>
+      <c r="F194" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="195" spans="5:6">
+      <c r="E195" t="s">
+        <v>11</v>
+      </c>
+      <c r="F195" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="196" spans="5:6">
+      <c r="E196" t="s">
+        <v>11</v>
+      </c>
+      <c r="F196" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="197" spans="5:6">
+      <c r="E197" t="s">
+        <v>11</v>
+      </c>
+      <c r="F197" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="198" spans="5:6">
+      <c r="E198" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="199" spans="5:6">
+      <c r="E199" t="s">
+        <v>11</v>
+      </c>
+      <c r="F199" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="200" spans="5:6">
+      <c r="E200" t="s">
+        <v>11</v>
+      </c>
+      <c r="F200" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="201" spans="5:6">
+      <c r="E201" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="202" spans="5:6">
+      <c r="E202" t="s">
+        <v>11</v>
+      </c>
+      <c r="F202" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="203" spans="5:6">
+      <c r="E203" t="s">
+        <v>11</v>
+      </c>
+      <c r="F203" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="204" spans="5:6">
+      <c r="E204" t="s">
+        <v>11</v>
+      </c>
+      <c r="F204" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="205" spans="5:6">
+      <c r="E205" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="206" spans="5:6">
+      <c r="E206" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="207" spans="5:6">
+      <c r="E207" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="208" spans="5:6">
+      <c r="E208" t="s">
+        <v>11</v>
+      </c>
+      <c r="F208" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="209" spans="5:6">
+      <c r="E209" t="s">
+        <v>11</v>
+      </c>
+      <c r="F209" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="210" spans="5:6">
+      <c r="E210" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="211" spans="5:6">
+      <c r="E211" t="s">
+        <v>11</v>
+      </c>
+      <c r="F211" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="212" spans="5:6">
+      <c r="E212" t="s">
+        <v>11</v>
+      </c>
+      <c r="F212" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="213" spans="5:6">
+      <c r="E213" t="s">
+        <v>11</v>
+      </c>
+      <c r="F213" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="214" spans="5:6">
+      <c r="E214" t="s">
+        <v>11</v>
+      </c>
+      <c r="F214" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="215" spans="5:6">
+      <c r="E215" t="s">
+        <v>11</v>
+      </c>
+      <c r="F215" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="216" spans="5:6">
+      <c r="E216" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="217" spans="5:6">
+      <c r="E217" t="s">
+        <v>11</v>
+      </c>
+      <c r="F217" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="218" spans="5:6">
+      <c r="E218" t="s">
+        <v>11</v>
+      </c>
+      <c r="F218" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="219" spans="5:6">
+      <c r="E219" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="220" spans="5:6">
+      <c r="E220" t="s">
+        <v>11</v>
+      </c>
+      <c r="F220" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="221" spans="5:6">
+      <c r="E221" t="s">
+        <v>11</v>
+      </c>
+      <c r="F221" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="222" spans="5:6">
+      <c r="E222" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="223" spans="5:6">
+      <c r="E223" t="s">
+        <v>11</v>
+      </c>
+      <c r="F223" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="224" spans="5:6">
+      <c r="E224" t="s">
+        <v>11</v>
+      </c>
+      <c r="F224" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="225" spans="5:6">
+      <c r="E225" t="s">
+        <v>11</v>
+      </c>
+      <c r="F225" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="226" spans="5:6">
+      <c r="E226" t="s">
+        <v>11</v>
+      </c>
+      <c r="F226" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="227" spans="5:6">
+      <c r="E227" t="s">
+        <v>11</v>
+      </c>
+      <c r="F227" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="228" spans="5:6">
+      <c r="E228" t="s">
+        <v>11</v>
+      </c>
+      <c r="F228" t="s">
         <v>112</v>
       </c>
     </row>

--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="425">
   <si>
     <t>厂商</t>
   </si>
@@ -1302,6 +1302,15 @@
   </si>
   <si>
     <t>手柄英雄2</t>
+  </si>
+  <si>
+    <t>霹雳神兵</t>
+  </si>
+  <si>
+    <t>data east usa</t>
+  </si>
+  <si>
+    <t>异形特攻队</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1340,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,45 +1384,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1404,21 +1414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1427,11 +1422,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1444,26 +1455,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1482,7 +1491,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,13 +1575,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,145 +1665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1679,8 +1688,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1700,26 +1709,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1735,17 +1724,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1773,6 +1758,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1781,10 +1790,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1793,133 +1802,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3779,7 +3788,7 @@
   <dimension ref="A1:F228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6390,7 +6399,16 @@
         <v>112</v>
       </c>
     </row>
-    <row r="184" spans="5:6">
+    <row r="184" spans="2:6">
+      <c r="B184" t="s">
+        <v>422</v>
+      </c>
+      <c r="C184" t="s">
+        <v>423</v>
+      </c>
+      <c r="D184">
+        <v>1988</v>
+      </c>
       <c r="E184" t="s">
         <v>11</v>
       </c>
@@ -6398,7 +6416,16 @@
         <v>112</v>
       </c>
     </row>
-    <row r="185" spans="5:6">
+    <row r="185" spans="2:6">
+      <c r="B185" t="s">
+        <v>424</v>
+      </c>
+      <c r="C185" t="s">
+        <v>326</v>
+      </c>
+      <c r="D185">
+        <v>1988</v>
+      </c>
       <c r="E185" t="s">
         <v>11</v>
       </c>

--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11550" windowHeight="6555" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="家用机" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="428">
   <si>
     <t>厂商</t>
   </si>
@@ -1312,16 +1312,25 @@
   <si>
     <t>异形特攻队</t>
   </si>
+  <si>
+    <t>快杰洋枪1</t>
+  </si>
+  <si>
+    <t>快杰洋枪2</t>
+  </si>
+  <si>
+    <t>快杰洋枪3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1339,38 +1348,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1384,11 +1371,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1399,40 +1386,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1448,14 +1410,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1470,9 +1424,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1497,31 +1506,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,19 +1530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,85 +1548,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1653,7 +1578,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1665,13 +1668,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,11 +1694,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1709,32 +1724,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1746,24 +1735,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1782,6 +1753,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1790,10 +1799,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1802,133 +1811,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3788,7 +3797,7 @@
   <dimension ref="A1:F228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="D184" sqref="D184"/>
+      <selection activeCell="I188" sqref="I188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6433,7 +6442,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="186" spans="5:6">
+    <row r="186" spans="2:6">
+      <c r="B186" t="s">
+        <v>425</v>
+      </c>
       <c r="E186" t="s">
         <v>11</v>
       </c>
@@ -6441,7 +6453,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="187" spans="5:6">
+    <row r="187" spans="2:6">
+      <c r="B187" t="s">
+        <v>426</v>
+      </c>
       <c r="E187" t="s">
         <v>11</v>
       </c>
@@ -6449,7 +6464,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="188" spans="5:6">
+    <row r="188" spans="2:6">
+      <c r="B188" t="s">
+        <v>427</v>
+      </c>
       <c r="E188" t="s">
         <v>11</v>
       </c>

--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="家用机" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="模拟器" sheetId="2" r:id="rId3"/>
     <sheet name="经典游戏" sheetId="4" r:id="rId4"/>
     <sheet name="经典游戏2中文名称版" sheetId="5" r:id="rId5"/>
+    <sheet name="经典中文游戏3街机" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="429">
   <si>
     <t>厂商</t>
   </si>
@@ -1321,16 +1322,19 @@
   <si>
     <t>快杰洋枪3</t>
   </si>
+  <si>
+    <t>口袋战士</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1342,7 +1346,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1356,8 +1360,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1380,112 +1490,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1500,7 +1504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,7 +1516,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,7 +1552,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,151 +1684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,6 +1709,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1739,55 +1787,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1799,10 +1803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1811,133 +1815,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3796,8 +3800,8 @@
   <sheetPr/>
   <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="I188" sqref="I188"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6799,4 +6803,61 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>1997</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="430">
   <si>
     <t>厂商</t>
   </si>
@@ -1325,16 +1325,19 @@
   <si>
     <t>口袋战士</t>
   </si>
+  <si>
+    <t>MAME</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1346,39 +1349,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1391,75 +1383,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1481,11 +1407,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1504,7 +1507,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,7 +1609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1528,7 +1621,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,49 +1651,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,97 +1687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1695,65 +1698,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1795,6 +1739,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1803,10 +1806,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1815,133 +1818,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3800,8 +3803,8 @@
   <sheetPr/>
   <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6808,13 +6811,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="6" max="6" width="15.125" customWidth="1"/>
   </cols>
@@ -6856,6 +6859,14 @@
         <v>241</v>
       </c>
     </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" t="s">
+        <v>429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="5"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="家用机" sheetId="1" r:id="rId1"/>
@@ -723,7 +723,7 @@
     <t>游戏类型</t>
   </si>
   <si>
-    <t>超级马里奥兄弟</t>
+    <t>超级马里奥兄弟1</t>
   </si>
   <si>
     <t>Nintendo</t>
@@ -1334,10 +1334,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1349,21 +1349,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1383,9 +1399,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1407,14 +1476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1423,72 +1484,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1507,13 +1507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,19 +1531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,55 +1549,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,61 +1591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,7 +1609,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1698,6 +1698,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1716,46 +1736,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1784,17 +1775,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1806,10 +1806,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1818,133 +1818,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3803,8 +3803,8 @@
   <sheetPr/>
   <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6813,8 +6813,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>

--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="432">
   <si>
     <t>厂商</t>
   </si>
@@ -729,6 +729,12 @@
     <t>Nintendo</t>
   </si>
   <si>
+    <t>超级马里奥兄弟2</t>
+  </si>
+  <si>
+    <t>超级马里奥兄弟3</t>
+  </si>
+  <si>
     <t>双截龙1</t>
   </si>
   <si>
@@ -1334,10 +1340,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1355,9 +1361,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1365,6 +1370,52 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1393,37 +1444,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1434,6 +1463,22 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1454,45 +1499,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1507,7 +1513,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,163 +1675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,20 +1709,54 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1736,32 +1776,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1774,30 +1804,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1806,10 +1812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1818,133 +1824,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3801,10 +3807,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F228"/>
+  <dimension ref="A1:F230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3859,7 +3865,7 @@
         <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D3">
         <v>1988</v>
@@ -3873,13 +3879,13 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D4">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -3890,13 +3896,13 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
         <v>233</v>
       </c>
       <c r="D5">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -3907,13 +3913,13 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
         <v>235</v>
       </c>
-      <c r="C6" t="s">
-        <v>229</v>
-      </c>
       <c r="D6">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -3927,10 +3933,10 @@
         <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D7">
-        <v>1982</v>
+        <v>1990</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -3947,7 +3953,7 @@
         <v>229</v>
       </c>
       <c r="D8">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -3964,7 +3970,7 @@
         <v>229</v>
       </c>
       <c r="D9">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -3975,13 +3981,13 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D10">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -3992,30 +3998,30 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D11">
-        <v>1993</v>
+        <v>1984</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>241</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>242</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D12">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -4026,19 +4032,19 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13">
+        <v>1993</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
         <v>243</v>
-      </c>
-      <c r="C13" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13">
-        <v>1992</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -4046,10 +4052,10 @@
         <v>244</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D14">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -4063,10 +4069,10 @@
         <v>245</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D15">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -4077,13 +4083,13 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D16">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -4094,13 +4100,13 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" t="s">
         <v>248</v>
       </c>
-      <c r="C17" t="s">
-        <v>246</v>
-      </c>
       <c r="D17">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -4113,6 +4119,12 @@
       <c r="B18" t="s">
         <v>249</v>
       </c>
+      <c r="C18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18">
+        <v>1990</v>
+      </c>
       <c r="E18" t="s">
         <v>11</v>
       </c>
@@ -4125,10 +4137,10 @@
         <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D19">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -4139,13 +4151,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" t="s">
-        <v>240</v>
-      </c>
-      <c r="D20">
-        <v>1993</v>
+        <v>251</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -4156,7 +4162,13 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" t="s">
         <v>253</v>
+      </c>
+      <c r="D21">
+        <v>1987</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -4169,6 +4181,12 @@
       <c r="B22" t="s">
         <v>254</v>
       </c>
+      <c r="C22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22">
+        <v>1993</v>
+      </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
@@ -4191,9 +4209,6 @@
       <c r="B24" t="s">
         <v>256</v>
       </c>
-      <c r="D24">
-        <v>1994</v>
-      </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
@@ -4216,6 +4231,9 @@
       <c r="B26" t="s">
         <v>258</v>
       </c>
+      <c r="D26">
+        <v>1994</v>
+      </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
@@ -4260,12 +4278,6 @@
       <c r="B30" t="s">
         <v>262</v>
       </c>
-      <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30">
-        <v>1980</v>
-      </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
@@ -4273,48 +4285,48 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:6">
       <c r="B31" t="s">
         <v>263</v>
       </c>
-      <c r="C31" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31">
-        <v>1990</v>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32">
+        <v>1980</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
         <v>265</v>
       </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" t="s">
-        <v>152</v>
-      </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="D33">
         <v>1990</v>
       </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -4325,7 +4337,13 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>267</v>
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35">
+        <v>1990</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -4437,9 +4455,6 @@
       <c r="B45" t="s">
         <v>277</v>
       </c>
-      <c r="C45" t="s">
-        <v>278</v>
-      </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
@@ -4449,9 +4464,6 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>279</v>
-      </c>
-      <c r="C46" t="s">
         <v>278</v>
       </c>
       <c r="E46" t="s">
@@ -4463,10 +4475,10 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" t="s">
+        <v>279</v>
+      </c>
+      <c r="C47" t="s">
         <v>280</v>
-      </c>
-      <c r="C47" t="s">
-        <v>278</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -4480,10 +4492,7 @@
         <v>281</v>
       </c>
       <c r="C48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D48">
-        <v>1994</v>
+        <v>280</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -4496,6 +4505,9 @@
       <c r="B49" t="s">
         <v>282</v>
       </c>
+      <c r="C49" t="s">
+        <v>280</v>
+      </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
@@ -4507,6 +4519,12 @@
       <c r="B50" t="s">
         <v>283</v>
       </c>
+      <c r="C50" t="s">
+        <v>280</v>
+      </c>
+      <c r="D50">
+        <v>1994</v>
+      </c>
       <c r="E50" t="s">
         <v>11</v>
       </c>
@@ -4571,7 +4589,7 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -4582,7 +4600,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -4593,7 +4611,7 @@
     </row>
     <row r="58" spans="2:6">
       <c r="B58" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -4613,7 +4631,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" customFormat="1" spans="2:6">
+    <row r="60" spans="2:6">
       <c r="B60" t="s">
         <v>292</v>
       </c>
@@ -4635,7 +4653,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" customFormat="1" spans="2:6">
       <c r="B62" t="s">
         <v>294</v>
       </c>
@@ -4780,13 +4798,7 @@
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" t="s">
-        <v>278</v>
-      </c>
-      <c r="D75">
-        <v>1985</v>
+        <v>307</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -4797,7 +4809,7 @@
     </row>
     <row r="76" spans="2:6">
       <c r="B76" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -4808,7 +4820,13 @@
     </row>
     <row r="77" spans="2:6">
       <c r="B77" t="s">
-        <v>308</v>
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
+        <v>280</v>
+      </c>
+      <c r="D77">
+        <v>1985</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -4918,7 +4936,7 @@
     </row>
     <row r="87" spans="2:6">
       <c r="B87" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
@@ -4929,7 +4947,7 @@
     </row>
     <row r="88" spans="2:6">
       <c r="B88" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
@@ -4940,7 +4958,7 @@
     </row>
     <row r="89" spans="2:6">
       <c r="B89" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
@@ -4950,14 +4968,8 @@
       </c>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
         <v>320</v>
-      </c>
-      <c r="C90" t="s">
-        <v>240</v>
-      </c>
-      <c r="D90">
-        <v>1987</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
@@ -4970,9 +4982,6 @@
       <c r="B91" t="s">
         <v>321</v>
       </c>
-      <c r="D91">
-        <v>1991</v>
-      </c>
       <c r="E91" t="s">
         <v>11</v>
       </c>
@@ -4981,14 +4990,14 @@
       </c>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>322</v>
       </c>
       <c r="C92" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D92">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -5001,11 +5010,8 @@
       <c r="B93" t="s">
         <v>323</v>
       </c>
-      <c r="C93" t="s">
-        <v>324</v>
-      </c>
       <c r="D93">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -5016,13 +5022,13 @@
     </row>
     <row r="94" spans="2:6">
       <c r="B94" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C94" t="s">
-        <v>326</v>
+        <v>229</v>
       </c>
       <c r="D94">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
@@ -5033,13 +5039,13 @@
     </row>
     <row r="95" spans="2:6">
       <c r="B95" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D95">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -5050,13 +5056,13 @@
     </row>
     <row r="96" spans="2:6">
       <c r="B96" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
+        <v>328</v>
       </c>
       <c r="D96">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
@@ -5067,13 +5073,13 @@
     </row>
     <row r="97" spans="2:6">
       <c r="B97" t="s">
+        <v>329</v>
+      </c>
+      <c r="C97" t="s">
         <v>330</v>
       </c>
-      <c r="C97" t="s">
-        <v>229</v>
-      </c>
       <c r="D97">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
@@ -5087,10 +5093,10 @@
         <v>331</v>
       </c>
       <c r="C98" t="s">
-        <v>328</v>
+        <v>223</v>
       </c>
       <c r="D98">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
@@ -5121,10 +5127,10 @@
         <v>333</v>
       </c>
       <c r="C100" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D100">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -5135,13 +5141,13 @@
     </row>
     <row r="101" spans="2:6">
       <c r="B101" t="s">
-        <v>200</v>
+        <v>334</v>
       </c>
       <c r="C101" t="s">
-        <v>334</v>
+        <v>229</v>
       </c>
       <c r="D101">
-        <v>1980</v>
+        <v>1985</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -5152,13 +5158,13 @@
     </row>
     <row r="102" spans="2:6">
       <c r="B102" t="s">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="D102">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -5169,13 +5175,13 @@
     </row>
     <row r="103" spans="2:6">
       <c r="B103" t="s">
-        <v>335</v>
+        <v>200</v>
       </c>
       <c r="C103" t="s">
         <v>336</v>
       </c>
       <c r="D103">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
@@ -5186,13 +5192,13 @@
     </row>
     <row r="104" spans="2:6">
       <c r="B104" t="s">
-        <v>337</v>
+        <v>148</v>
       </c>
       <c r="C104" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="D104">
-        <v>1982</v>
+        <v>1988</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -5203,13 +5209,13 @@
     </row>
     <row r="105" spans="2:6">
       <c r="B105" t="s">
-        <v>219</v>
+        <v>337</v>
       </c>
       <c r="C105" t="s">
-        <v>223</v>
+        <v>338</v>
       </c>
       <c r="D105">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -5220,13 +5226,13 @@
     </row>
     <row r="106" spans="2:6">
       <c r="B106" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C106" t="s">
-        <v>339</v>
+        <v>73</v>
       </c>
       <c r="D106">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -5237,10 +5243,10 @@
     </row>
     <row r="107" spans="2:6">
       <c r="B107" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="C107" t="s">
-        <v>340</v>
+        <v>223</v>
       </c>
       <c r="D107">
         <v>1987</v>
@@ -5254,13 +5260,13 @@
     </row>
     <row r="108" spans="2:6">
       <c r="B108" t="s">
+        <v>340</v>
+      </c>
+      <c r="C108" t="s">
         <v>341</v>
       </c>
-      <c r="C108" t="s">
-        <v>328</v>
-      </c>
       <c r="D108">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -5271,13 +5277,13 @@
     </row>
     <row r="109" spans="2:6">
       <c r="B109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" t="s">
         <v>342</v>
       </c>
-      <c r="C109" t="s">
-        <v>229</v>
-      </c>
       <c r="D109">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -5291,10 +5297,10 @@
         <v>343</v>
       </c>
       <c r="C110" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D110">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
@@ -5308,10 +5314,10 @@
         <v>344</v>
       </c>
       <c r="C111" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="D111">
-        <v>1987</v>
+        <v>1992</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -5325,10 +5331,10 @@
         <v>345</v>
       </c>
       <c r="C112" t="s">
-        <v>229</v>
+        <v>330</v>
       </c>
       <c r="D112">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
@@ -5339,13 +5345,13 @@
     </row>
     <row r="113" spans="2:6">
       <c r="B113" t="s">
-        <v>186</v>
+        <v>346</v>
       </c>
       <c r="C113" t="s">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="D113">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -5356,13 +5362,13 @@
     </row>
     <row r="114" spans="2:6">
       <c r="B114" t="s">
-        <v>145</v>
+        <v>347</v>
       </c>
       <c r="C114" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D114">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
@@ -5373,13 +5379,13 @@
     </row>
     <row r="115" spans="2:6">
       <c r="B115" t="s">
-        <v>346</v>
+        <v>186</v>
       </c>
       <c r="C115" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D115">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
@@ -5390,13 +5396,13 @@
     </row>
     <row r="116" spans="2:6">
       <c r="B116" t="s">
-        <v>347</v>
+        <v>145</v>
       </c>
       <c r="C116" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D116">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
@@ -5410,10 +5416,10 @@
         <v>348</v>
       </c>
       <c r="C117" t="s">
-        <v>349</v>
+        <v>253</v>
       </c>
       <c r="D117">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
@@ -5424,13 +5430,13 @@
     </row>
     <row r="118" spans="2:6">
       <c r="B118" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C118" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D118">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
@@ -5441,13 +5447,13 @@
     </row>
     <row r="119" spans="2:6">
       <c r="B119" t="s">
+        <v>350</v>
+      </c>
+      <c r="C119" t="s">
         <v>351</v>
       </c>
-      <c r="C119" t="s">
-        <v>127</v>
-      </c>
       <c r="D119">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
@@ -5461,10 +5467,10 @@
         <v>352</v>
       </c>
       <c r="C120" t="s">
-        <v>353</v>
+        <v>229</v>
       </c>
       <c r="D120">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -5475,13 +5481,13 @@
     </row>
     <row r="121" spans="2:6">
       <c r="B121" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C121" t="s">
-        <v>251</v>
+        <v>127</v>
       </c>
       <c r="D121">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
@@ -5492,13 +5498,13 @@
     </row>
     <row r="122" spans="2:6">
       <c r="B122" t="s">
+        <v>354</v>
+      </c>
+      <c r="C122" t="s">
         <v>355</v>
       </c>
-      <c r="C122" t="s">
-        <v>73</v>
-      </c>
       <c r="D122">
-        <v>1983</v>
+        <v>1989</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
@@ -5509,13 +5515,13 @@
     </row>
     <row r="123" spans="2:6">
       <c r="B123" t="s">
-        <v>150</v>
+        <v>356</v>
       </c>
       <c r="C123" t="s">
-        <v>65</v>
+        <v>253</v>
       </c>
       <c r="D123">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
@@ -5526,13 +5532,13 @@
     </row>
     <row r="124" spans="2:6">
       <c r="B124" t="s">
-        <v>187</v>
+        <v>357</v>
       </c>
       <c r="C124" t="s">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="D124">
-        <v>2003</v>
+        <v>1983</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
@@ -5543,13 +5549,13 @@
     </row>
     <row r="125" spans="2:6">
       <c r="B125" t="s">
-        <v>356</v>
+        <v>150</v>
       </c>
       <c r="C125" t="s">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="D125">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
@@ -5560,7 +5566,13 @@
     </row>
     <row r="126" spans="2:6">
       <c r="B126" t="s">
-        <v>357</v>
+        <v>187</v>
+      </c>
+      <c r="C126" t="s">
+        <v>253</v>
+      </c>
+      <c r="D126">
+        <v>2003</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
@@ -5574,10 +5586,10 @@
         <v>358</v>
       </c>
       <c r="C127" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D127">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -5590,12 +5602,6 @@
       <c r="B128" t="s">
         <v>359</v>
       </c>
-      <c r="C128" t="s">
-        <v>251</v>
-      </c>
-      <c r="D128">
-        <v>1985</v>
-      </c>
       <c r="E128" t="s">
         <v>11</v>
       </c>
@@ -5608,7 +5614,7 @@
         <v>360</v>
       </c>
       <c r="C129" t="s">
-        <v>361</v>
+        <v>229</v>
       </c>
       <c r="D129">
         <v>1991</v>
@@ -5622,13 +5628,13 @@
     </row>
     <row r="130" spans="2:6">
       <c r="B130" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C130" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D130">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -5639,10 +5645,10 @@
     </row>
     <row r="131" spans="2:6">
       <c r="B131" t="s">
+        <v>362</v>
+      </c>
+      <c r="C131" t="s">
         <v>363</v>
-      </c>
-      <c r="C131" t="s">
-        <v>251</v>
       </c>
       <c r="D131">
         <v>1991</v>
@@ -5659,10 +5665,10 @@
         <v>364</v>
       </c>
       <c r="C132" t="s">
-        <v>365</v>
+        <v>253</v>
       </c>
       <c r="D132">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
@@ -5673,7 +5679,13 @@
     </row>
     <row r="133" spans="2:6">
       <c r="B133" t="s">
-        <v>366</v>
+        <v>365</v>
+      </c>
+      <c r="C133" t="s">
+        <v>253</v>
+      </c>
+      <c r="D133">
+        <v>1991</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
@@ -5684,13 +5696,13 @@
     </row>
     <row r="134" spans="2:6">
       <c r="B134" t="s">
+        <v>366</v>
+      </c>
+      <c r="C134" t="s">
         <v>367</v>
       </c>
-      <c r="C134" t="s">
-        <v>251</v>
-      </c>
       <c r="D134">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -5703,12 +5715,6 @@
       <c r="B135" t="s">
         <v>368</v>
       </c>
-      <c r="C135" t="s">
-        <v>251</v>
-      </c>
-      <c r="D135">
-        <v>1990</v>
-      </c>
       <c r="E135" t="s">
         <v>11</v>
       </c>
@@ -5721,10 +5727,10 @@
         <v>369</v>
       </c>
       <c r="C136" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D136">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
@@ -5738,10 +5744,10 @@
         <v>370</v>
       </c>
       <c r="C137" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D137">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
@@ -5755,10 +5761,10 @@
         <v>371</v>
       </c>
       <c r="C138" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D138">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E138" t="s">
         <v>11</v>
@@ -5772,10 +5778,10 @@
         <v>372</v>
       </c>
       <c r="C139" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D139">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
@@ -5786,10 +5792,13 @@
     </row>
     <row r="140" spans="2:6">
       <c r="B140" t="s">
-        <v>154</v>
+        <v>373</v>
       </c>
       <c r="C140" t="s">
-        <v>373</v>
+        <v>253</v>
+      </c>
+      <c r="D140">
+        <v>1993</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -5803,10 +5812,10 @@
         <v>374</v>
       </c>
       <c r="C141" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D141">
-        <v>1985</v>
+        <v>1993</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -5817,13 +5826,10 @@
     </row>
     <row r="142" spans="2:6">
       <c r="B142" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="C142" t="s">
-        <v>251</v>
-      </c>
-      <c r="D142">
-        <v>1987</v>
+        <v>375</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
@@ -5834,7 +5840,13 @@
     </row>
     <row r="143" spans="2:6">
       <c r="B143" t="s">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="C143" t="s">
+        <v>253</v>
+      </c>
+      <c r="D143">
+        <v>1985</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
@@ -5845,7 +5857,13 @@
     </row>
     <row r="144" spans="2:6">
       <c r="B144" t="s">
-        <v>376</v>
+        <v>188</v>
+      </c>
+      <c r="C144" t="s">
+        <v>253</v>
+      </c>
+      <c r="D144">
+        <v>1987</v>
       </c>
       <c r="E144" t="s">
         <v>11</v>
@@ -5856,13 +5874,7 @@
     </row>
     <row r="145" spans="2:6">
       <c r="B145" t="s">
-        <v>156</v>
-      </c>
-      <c r="C145" t="s">
-        <v>353</v>
-      </c>
-      <c r="D145">
-        <v>1991</v>
+        <v>377</v>
       </c>
       <c r="E145" t="s">
         <v>11</v>
@@ -5873,13 +5885,7 @@
     </row>
     <row r="146" spans="2:6">
       <c r="B146" t="s">
-        <v>157</v>
-      </c>
-      <c r="C146" t="s">
-        <v>62</v>
-      </c>
-      <c r="D146">
-        <v>1989</v>
+        <v>378</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
@@ -5890,13 +5896,13 @@
     </row>
     <row r="147" spans="2:6">
       <c r="B147" t="s">
-        <v>377</v>
+        <v>156</v>
       </c>
       <c r="C147" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="D147">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E147" t="s">
         <v>11</v>
@@ -5907,13 +5913,13 @@
     </row>
     <row r="148" spans="2:6">
       <c r="B148" t="s">
-        <v>379</v>
+        <v>157</v>
       </c>
       <c r="C148" t="s">
-        <v>251</v>
+        <v>62</v>
       </c>
       <c r="D148">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
@@ -5924,13 +5930,13 @@
     </row>
     <row r="149" spans="2:6">
       <c r="B149" t="s">
+        <v>379</v>
+      </c>
+      <c r="C149" t="s">
         <v>380</v>
       </c>
-      <c r="C149" t="s">
-        <v>381</v>
-      </c>
       <c r="D149">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
@@ -5941,7 +5947,13 @@
     </row>
     <row r="150" spans="2:6">
       <c r="B150" t="s">
-        <v>382</v>
+        <v>381</v>
+      </c>
+      <c r="C150" t="s">
+        <v>253</v>
+      </c>
+      <c r="D150">
+        <v>1991</v>
       </c>
       <c r="E150" t="s">
         <v>11</v>
@@ -5952,13 +5964,13 @@
     </row>
     <row r="151" spans="2:6">
       <c r="B151" t="s">
+        <v>382</v>
+      </c>
+      <c r="C151" t="s">
         <v>383</v>
       </c>
-      <c r="C151" t="s">
-        <v>251</v>
-      </c>
       <c r="D151">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E151" t="s">
         <v>11</v>
@@ -5971,12 +5983,6 @@
       <c r="B152" t="s">
         <v>384</v>
       </c>
-      <c r="C152" t="s">
-        <v>73</v>
-      </c>
-      <c r="D152">
-        <v>1984</v>
-      </c>
       <c r="E152" t="s">
         <v>11</v>
       </c>
@@ -5989,10 +5995,10 @@
         <v>385</v>
       </c>
       <c r="C153" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="D153">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E153" t="s">
         <v>11</v>
@@ -6006,7 +6012,7 @@
         <v>386</v>
       </c>
       <c r="C154" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="D154">
         <v>1984</v>
@@ -6020,10 +6026,13 @@
     </row>
     <row r="155" spans="2:6">
       <c r="B155" t="s">
-        <v>193</v>
+        <v>387</v>
+      </c>
+      <c r="C155" t="s">
+        <v>355</v>
       </c>
       <c r="D155">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -6034,10 +6043,13 @@
     </row>
     <row r="156" spans="2:6">
       <c r="B156" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="C156" t="s">
+        <v>229</v>
       </c>
       <c r="D156">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="E156" t="s">
         <v>11</v>
@@ -6048,13 +6060,10 @@
     </row>
     <row r="157" spans="2:6">
       <c r="B157" t="s">
-        <v>216</v>
-      </c>
-      <c r="C157" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="D157">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="E157" t="s">
         <v>11</v>
@@ -6065,7 +6074,10 @@
     </row>
     <row r="158" spans="2:6">
       <c r="B158" t="s">
-        <v>388</v>
+        <v>389</v>
+      </c>
+      <c r="D158">
+        <v>1991</v>
       </c>
       <c r="E158" t="s">
         <v>11</v>
@@ -6076,13 +6088,13 @@
     </row>
     <row r="159" spans="2:6">
       <c r="B159" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="C159" t="s">
-        <v>336</v>
+        <v>223</v>
       </c>
       <c r="D159">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
@@ -6093,13 +6105,7 @@
     </row>
     <row r="160" spans="2:6">
       <c r="B160" t="s">
-        <v>389</v>
-      </c>
-      <c r="C160" t="s">
         <v>390</v>
-      </c>
-      <c r="D160">
-        <v>2008</v>
       </c>
       <c r="E160" t="s">
         <v>11</v>
@@ -6110,13 +6116,13 @@
     </row>
     <row r="161" spans="2:6">
       <c r="B161" t="s">
-        <v>391</v>
+        <v>159</v>
       </c>
       <c r="C161" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="D161">
-        <v>2008</v>
+        <v>1990</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
@@ -6127,13 +6133,13 @@
     </row>
     <row r="162" spans="2:6">
       <c r="B162" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C162" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D162">
-        <v>1982</v>
+        <v>2008</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -6144,10 +6150,10 @@
     </row>
     <row r="163" spans="2:6">
       <c r="B163" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C163" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D163">
         <v>2008</v>
@@ -6161,13 +6167,13 @@
     </row>
     <row r="164" spans="2:6">
       <c r="B164" t="s">
+        <v>395</v>
+      </c>
+      <c r="C164" t="s">
         <v>396</v>
       </c>
-      <c r="C164" t="s">
-        <v>73</v>
-      </c>
       <c r="D164">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="E164" t="s">
         <v>11</v>
@@ -6181,7 +6187,10 @@
         <v>397</v>
       </c>
       <c r="C165" t="s">
-        <v>398</v>
+        <v>392</v>
+      </c>
+      <c r="D165">
+        <v>2008</v>
       </c>
       <c r="E165" t="s">
         <v>11</v>
@@ -6192,13 +6201,13 @@
     </row>
     <row r="166" spans="2:6">
       <c r="B166" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C166" t="s">
-        <v>400</v>
+        <v>73</v>
       </c>
       <c r="D166">
-        <v>2009</v>
+        <v>1980</v>
       </c>
       <c r="E166" t="s">
         <v>11</v>
@@ -6209,13 +6218,10 @@
     </row>
     <row r="167" spans="2:6">
       <c r="B167" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C167" t="s">
-        <v>402</v>
-      </c>
-      <c r="D167">
-        <v>1990</v>
+        <v>400</v>
       </c>
       <c r="E167" t="s">
         <v>11</v>
@@ -6226,13 +6232,13 @@
     </row>
     <row r="168" spans="2:6">
       <c r="B168" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C168" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D168">
-        <v>1992</v>
+        <v>2009</v>
       </c>
       <c r="E168" t="s">
         <v>11</v>
@@ -6243,10 +6249,13 @@
     </row>
     <row r="169" spans="2:6">
       <c r="B169" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C169" t="s">
-        <v>406</v>
+        <v>404</v>
+      </c>
+      <c r="D169">
+        <v>1990</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -6257,13 +6266,13 @@
     </row>
     <row r="170" spans="2:6">
       <c r="B170" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C170" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D170">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -6274,7 +6283,10 @@
     </row>
     <row r="171" spans="2:6">
       <c r="B171" t="s">
-        <v>409</v>
+        <v>407</v>
+      </c>
+      <c r="C171" t="s">
+        <v>408</v>
       </c>
       <c r="E171" t="s">
         <v>11</v>
@@ -6285,7 +6297,13 @@
     </row>
     <row r="172" spans="2:6">
       <c r="B172" t="s">
+        <v>409</v>
+      </c>
+      <c r="C172" t="s">
         <v>410</v>
+      </c>
+      <c r="D172">
+        <v>1993</v>
       </c>
       <c r="E172" t="s">
         <v>11</v>
@@ -6419,12 +6437,6 @@
       <c r="B184" t="s">
         <v>422</v>
       </c>
-      <c r="C184" t="s">
-        <v>423</v>
-      </c>
-      <c r="D184">
-        <v>1988</v>
-      </c>
       <c r="E184" t="s">
         <v>11</v>
       </c>
@@ -6434,13 +6446,7 @@
     </row>
     <row r="185" spans="2:6">
       <c r="B185" t="s">
-        <v>424</v>
-      </c>
-      <c r="C185" t="s">
-        <v>326</v>
-      </c>
-      <c r="D185">
-        <v>1988</v>
+        <v>423</v>
       </c>
       <c r="E185" t="s">
         <v>11</v>
@@ -6451,7 +6457,13 @@
     </row>
     <row r="186" spans="2:6">
       <c r="B186" t="s">
+        <v>424</v>
+      </c>
+      <c r="C186" t="s">
         <v>425</v>
+      </c>
+      <c r="D186">
+        <v>1988</v>
       </c>
       <c r="E186" t="s">
         <v>11</v>
@@ -6464,6 +6476,12 @@
       <c r="B187" t="s">
         <v>426</v>
       </c>
+      <c r="C187" t="s">
+        <v>328</v>
+      </c>
+      <c r="D187">
+        <v>1988</v>
+      </c>
       <c r="E187" t="s">
         <v>11</v>
       </c>
@@ -6482,7 +6500,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="189" spans="5:6">
+    <row r="189" spans="2:6">
+      <c r="B189" t="s">
+        <v>428</v>
+      </c>
       <c r="E189" t="s">
         <v>11</v>
       </c>
@@ -6490,7 +6511,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="190" spans="5:6">
+    <row r="190" spans="2:6">
+      <c r="B190" t="s">
+        <v>429</v>
+      </c>
       <c r="E190" t="s">
         <v>11</v>
       </c>
@@ -6799,6 +6823,22 @@
         <v>11</v>
       </c>
       <c r="F228" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="229" spans="5:6">
+      <c r="E229" t="s">
+        <v>11</v>
+      </c>
+      <c r="F229" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="230" spans="5:6">
+      <c r="E230" t="s">
+        <v>11</v>
+      </c>
+      <c r="F230" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6844,7 +6884,7 @@
     </row>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -6856,7 +6896,7 @@
         <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -6864,7 +6904,7 @@
         <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/game/机型编年史.xlsx
+++ b/game/机型编年史.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="家用机" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="经典游戏" sheetId="4" r:id="rId4"/>
     <sheet name="经典游戏2中文名称版" sheetId="5" r:id="rId5"/>
     <sheet name="经典中文游戏3街机" sheetId="6" r:id="rId6"/>
+    <sheet name="模拟器平台对应表" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="473">
   <si>
     <t>厂商</t>
   </si>
@@ -354,6 +355,9 @@
     <t>n64</t>
   </si>
   <si>
+    <t>PC Engine/TurboGrafx 16 (CD)</t>
+  </si>
+  <si>
     <t>RetroArch教程</t>
   </si>
   <si>
@@ -378,10 +382,25 @@
     <t>Project64</t>
   </si>
   <si>
-    <t>Nebula</t>
+    <t>Nebula 2.25b</t>
   </si>
   <si>
     <t>MAME Plus</t>
+  </si>
+  <si>
+    <t>fceux-2.2.3</t>
+  </si>
+  <si>
+    <t>nullDC1.0.4</t>
+  </si>
+  <si>
+    <t>ePSXe1.7.0</t>
+  </si>
+  <si>
+    <t>pcsx2</t>
+  </si>
+  <si>
+    <t>mednafen1.26.1（MedLaunch配合用）</t>
   </si>
   <si>
     <t>名称</t>
@@ -1334,6 +1353,111 @@
   <si>
     <t>MAME</t>
   </si>
+  <si>
+    <t>原始机型</t>
+  </si>
+  <si>
+    <t>文件格式</t>
+  </si>
+  <si>
+    <t>PC模拟器</t>
+  </si>
+  <si>
+    <t>安卓模拟器</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>.nes</t>
+  </si>
+  <si>
+    <t>VirtuaNES 0.85</t>
+  </si>
+  <si>
+    <t>nostalgianesPRO 2.09</t>
+  </si>
+  <si>
+    <t>com-explusalpha-nesemu</t>
+  </si>
+  <si>
+    <t>.sfc</t>
+  </si>
+  <si>
+    <t>snes9x</t>
+  </si>
+  <si>
+    <t>Snes9x EX+</t>
+  </si>
+  <si>
+    <t>未测试</t>
+  </si>
+  <si>
+    <t>.gba</t>
+  </si>
+  <si>
+    <t>com-explusalpha-gbaemu</t>
+  </si>
+  <si>
+    <t>.n64</t>
+  </si>
+  <si>
+    <t>Project64 2.3.3</t>
+  </si>
+  <si>
+    <t>megaN64</t>
+  </si>
+  <si>
+    <t>CPS1|CPS2|CPS3|NEO|</t>
+  </si>
+  <si>
+    <t>Kawaks</t>
+  </si>
+  <si>
+    <t>Mame</t>
+  </si>
+  <si>
+    <t>MAMEAll (MAME 0.159u2)</t>
+  </si>
+  <si>
+    <t>CPS1|CPS2|CPS3|NEO|IGS</t>
+  </si>
+  <si>
+    <t>.md|.smd</t>
+  </si>
+  <si>
+    <t>Gens2.14</t>
+  </si>
+  <si>
+    <t>FBA shuffle2.4.0</t>
+  </si>
+  <si>
+    <t>aFBA0.2.97.35</t>
+  </si>
+  <si>
+    <t>PC Engine（北美版称为TurboGrafx-16）</t>
+  </si>
+  <si>
+    <t>.pce</t>
+  </si>
+  <si>
+    <t>Ootake2.94</t>
+  </si>
+  <si>
+    <t>PCE.emu 1.5.13</t>
+  </si>
+  <si>
+    <t>pcsx</t>
+  </si>
+  <si>
+    <t>Nostalgia</t>
+  </si>
+  <si>
+    <t>很多版本</t>
+  </si>
+  <si>
+    <t>Robert Broglia</t>
+  </si>
 </sst>
 </file>
 
@@ -1341,9 +1465,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1351,73 +1475,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1437,7 +1494,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1450,9 +1529,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1463,22 +1557,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1493,6 +1571,52 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1519,6 +1643,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1531,37 +1799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,127 +1817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,36 +1836,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1778,20 +1872,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1804,6 +1913,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1812,10 +1936,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1824,133 +1948,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3032,18 +3156,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="36.375" customWidth="1"/>
+    <col min="15" max="15" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -3057,109 +3182,182 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>110</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="H7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>114</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="H10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3185,21 +3383,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C2">
         <v>1997</v>
@@ -3207,7 +3405,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -3218,10 +3416,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <v>1992</v>
@@ -3229,7 +3427,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -3240,7 +3438,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -3251,7 +3449,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -3262,7 +3460,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -3273,7 +3471,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -3284,7 +3482,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -3295,10 +3493,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C11">
         <v>1999</v>
@@ -3306,7 +3504,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -3317,7 +3515,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -3328,7 +3526,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -3336,7 +3534,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -3344,302 +3542,302 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -3649,117 +3847,117 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B99" t="s">
         <v>92</v>
@@ -3770,10 +3968,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B100" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C100">
         <v>1987</v>
@@ -3781,7 +3979,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C101">
         <v>1987</v>
@@ -3789,7 +3987,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B102" t="s">
         <v>65</v>
@@ -3809,7 +4007,7 @@
   <sheetPr/>
   <dimension ref="A1:F230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+    <sheetView topLeftCell="A180" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3822,19 +4020,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F1" t="s">
         <v>105</v>
@@ -3845,10 +4043,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D2">
         <v>1985</v>
@@ -3857,15 +4055,15 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D3">
         <v>1988</v>
@@ -3874,15 +4072,15 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D4">
         <v>1988</v>
@@ -3891,15 +4089,15 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D5">
         <v>1988</v>
@@ -3908,15 +4106,15 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D6">
         <v>1989</v>
@@ -3925,15 +4123,15 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D7">
         <v>1990</v>
@@ -3942,15 +4140,15 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D8">
         <v>1981</v>
@@ -3959,15 +4157,15 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D9">
         <v>1982</v>
@@ -3976,15 +4174,15 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D10">
         <v>1984</v>
@@ -3993,15 +4191,15 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D11">
         <v>1984</v>
@@ -4010,15 +4208,15 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D12">
         <v>1990</v>
@@ -4027,15 +4225,15 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D13">
         <v>1993</v>
@@ -4044,15 +4242,15 @@
         <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D14">
         <v>1991</v>
@@ -4061,15 +4259,15 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D15">
         <v>1992</v>
@@ -4078,15 +4276,15 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D16">
         <v>1993</v>
@@ -4095,15 +4293,15 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C17" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D17">
         <v>1988</v>
@@ -4112,15 +4310,15 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D18">
         <v>1990</v>
@@ -4129,15 +4327,15 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C19" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D19">
         <v>1991</v>
@@ -4146,26 +4344,26 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C21" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D21">
         <v>1987</v>
@@ -4174,15 +4372,15 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C22" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D22">
         <v>1993</v>
@@ -4191,45 +4389,45 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D26">
         <v>1994</v>
@@ -4238,67 +4436,67 @@
         <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C32" t="s">
         <v>73</v>
@@ -4310,15 +4508,15 @@
         <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C33" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D33">
         <v>1990</v>
@@ -4326,21 +4524,21 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D35">
         <v>1990</v>
@@ -4349,178 +4547,178 @@
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C48" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C49" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C50" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D50">
         <v>1994</v>
@@ -4529,301 +4727,301 @@
         <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="2:6">
       <c r="B62" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C77" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D77">
         <v>1985</v>
@@ -4832,169 +5030,169 @@
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="2:6">
       <c r="B78" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="2:6">
       <c r="B79" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="2:6">
       <c r="B81" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="2:6">
       <c r="B83" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="2:6">
       <c r="B84" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="2:6">
       <c r="B85" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="2:6">
       <c r="B86" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="2:6">
       <c r="B88" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="2:6">
       <c r="B90" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="2:6">
       <c r="B92" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D92">
         <v>1987</v>
@@ -5003,12 +5201,12 @@
         <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="2:6">
       <c r="B93" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D93">
         <v>1991</v>
@@ -5017,15 +5215,15 @@
         <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="2:6">
       <c r="B94" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D94">
         <v>1984</v>
@@ -5034,15 +5232,15 @@
         <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="2:6">
       <c r="B95" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C95" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D95">
         <v>1993</v>
@@ -5051,15 +5249,15 @@
         <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="2:6">
       <c r="B96" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C96" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D96">
         <v>1989</v>
@@ -5068,15 +5266,15 @@
         <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C97" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D97">
         <v>1986</v>
@@ -5085,15 +5283,15 @@
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C98" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D98">
         <v>1988</v>
@@ -5102,15 +5300,15 @@
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="2:6">
       <c r="B99" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C99" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D99">
         <v>1985</v>
@@ -5119,15 +5317,15 @@
         <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="2:6">
       <c r="B100" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C100" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D100">
         <v>1990</v>
@@ -5136,15 +5334,15 @@
         <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="2:6">
       <c r="B101" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C101" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D101">
         <v>1985</v>
@@ -5153,15 +5351,15 @@
         <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="2:6">
       <c r="B102" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C102" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D102">
         <v>1991</v>
@@ -5170,15 +5368,15 @@
         <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="2:6">
       <c r="B103" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D103">
         <v>1980</v>
@@ -5187,15 +5385,15 @@
         <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="2:6">
       <c r="B104" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C104" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D104">
         <v>1988</v>
@@ -5204,15 +5402,15 @@
         <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="2:6">
       <c r="B105" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C105" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D105">
         <v>1990</v>
@@ -5221,12 +5419,12 @@
         <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="2:6">
       <c r="B106" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C106" t="s">
         <v>73</v>
@@ -5238,15 +5436,15 @@
         <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="2:6">
       <c r="B107" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C107" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D107">
         <v>1987</v>
@@ -5255,15 +5453,15 @@
         <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="2:6">
       <c r="B108" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C108" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D108">
         <v>1985</v>
@@ -5272,15 +5470,15 @@
         <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="2:6">
       <c r="B109" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C109" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D109">
         <v>1987</v>
@@ -5289,15 +5487,15 @@
         <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="2:6">
       <c r="B110" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C110" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D110">
         <v>1988</v>
@@ -5306,15 +5504,15 @@
         <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="2:6">
       <c r="B111" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C111" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D111">
         <v>1992</v>
@@ -5323,15 +5521,15 @@
         <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="2:6">
       <c r="B112" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C112" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D112">
         <v>1985</v>
@@ -5340,12 +5538,12 @@
         <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="2:6">
       <c r="B113" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C113" t="s">
         <v>62</v>
@@ -5357,15 +5555,15 @@
         <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="2:6">
       <c r="B114" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C114" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D114">
         <v>1992</v>
@@ -5374,15 +5572,15 @@
         <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C115" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D115">
         <v>1988</v>
@@ -5391,15 +5589,15 @@
         <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="2:6">
       <c r="B116" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C116" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D116">
         <v>1988</v>
@@ -5408,15 +5606,15 @@
         <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="2:6">
       <c r="B117" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C117" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D117">
         <v>1985</v>
@@ -5425,15 +5623,15 @@
         <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="2:6">
       <c r="B118" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C118" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D118">
         <v>1987</v>
@@ -5442,15 +5640,15 @@
         <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="2:6">
       <c r="B119" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C119" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D119">
         <v>1991</v>
@@ -5459,15 +5657,15 @@
         <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="2:6">
       <c r="B120" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C120" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D120">
         <v>1990</v>
@@ -5476,15 +5674,15 @@
         <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="2:6">
       <c r="B121" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C121" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D121">
         <v>1988</v>
@@ -5493,15 +5691,15 @@
         <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="B122" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C122" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D122">
         <v>1989</v>
@@ -5510,15 +5708,15 @@
         <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="2:6">
       <c r="B123" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C123" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D123">
         <v>1991</v>
@@ -5527,12 +5725,12 @@
         <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="B124" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C124" t="s">
         <v>73</v>
@@ -5544,12 +5742,12 @@
         <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125" spans="2:6">
       <c r="B125" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C125" t="s">
         <v>65</v>
@@ -5561,15 +5759,15 @@
         <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="2:6">
       <c r="B126" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C126" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D126">
         <v>2003</v>
@@ -5578,15 +5776,15 @@
         <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="2:6">
       <c r="B127" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C127" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D127">
         <v>1986</v>
@@ -5595,26 +5793,26 @@
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128" spans="2:6">
       <c r="B128" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="129" spans="2:6">
       <c r="B129" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C129" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D129">
         <v>1991</v>
@@ -5623,15 +5821,15 @@
         <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130" spans="2:6">
       <c r="B130" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C130" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D130">
         <v>1985</v>
@@ -5640,15 +5838,15 @@
         <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="131" spans="2:6">
       <c r="B131" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C131" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D131">
         <v>1991</v>
@@ -5657,15 +5855,15 @@
         <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132" spans="2:6">
       <c r="B132" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C132" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D132">
         <v>1986</v>
@@ -5674,15 +5872,15 @@
         <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133" spans="2:6">
       <c r="B133" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C133" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D133">
         <v>1991</v>
@@ -5691,15 +5889,15 @@
         <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" spans="2:6">
       <c r="B134" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C134" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D134">
         <v>1984</v>
@@ -5708,26 +5906,26 @@
         <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135" spans="2:6">
       <c r="B135" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136" spans="2:6">
       <c r="B136" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C136" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D136">
         <v>1990</v>
@@ -5736,15 +5934,15 @@
         <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C137" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D137">
         <v>1990</v>
@@ -5753,15 +5951,15 @@
         <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="2:6">
       <c r="B138" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C138" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D138">
         <v>1992</v>
@@ -5770,15 +5968,15 @@
         <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="139" spans="2:6">
       <c r="B139" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C139" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D139">
         <v>1989</v>
@@ -5787,15 +5985,15 @@
         <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="140" spans="2:6">
       <c r="B140" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C140" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D140">
         <v>1993</v>
@@ -5804,15 +6002,15 @@
         <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141" spans="2:6">
       <c r="B141" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C141" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D141">
         <v>1993</v>
@@ -5821,29 +6019,29 @@
         <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="142" spans="2:6">
       <c r="B142" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C142" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143" spans="2:6">
       <c r="B143" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C143" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D143">
         <v>1985</v>
@@ -5852,15 +6050,15 @@
         <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="144" spans="2:6">
       <c r="B144" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C144" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D144">
         <v>1987</v>
@@ -5869,37 +6067,37 @@
         <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="145" spans="2:6">
       <c r="B145" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E145" t="s">
         <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="146" spans="2:6">
       <c r="B146" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="147" spans="2:6">
       <c r="B147" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C147" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D147">
         <v>1991</v>
@@ -5908,12 +6106,12 @@
         <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="148" spans="2:6">
       <c r="B148" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C148" t="s">
         <v>62</v>
@@ -5925,15 +6123,15 @@
         <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="149" spans="2:6">
       <c r="B149" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C149" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D149">
         <v>1990</v>
@@ -5942,15 +6140,15 @@
         <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="150" spans="2:6">
       <c r="B150" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C150" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D150">
         <v>1991</v>
@@ -5959,15 +6157,15 @@
         <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="151" spans="2:6">
       <c r="B151" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C151" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D151">
         <v>1991</v>
@@ -5976,26 +6174,26 @@
         <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="152" spans="2:6">
       <c r="B152" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E152" t="s">
         <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="153" spans="2:6">
       <c r="B153" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C153" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D153">
         <v>1990</v>
@@ -6004,12 +6202,12 @@
         <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="154" spans="2:6">
       <c r="B154" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C154" t="s">
         <v>73</v>
@@ -6021,15 +6219,15 @@
         <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="155" spans="2:6">
       <c r="B155" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C155" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D155">
         <v>1986</v>
@@ -6038,15 +6236,15 @@
         <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="156" spans="2:6">
       <c r="B156" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C156" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D156">
         <v>1984</v>
@@ -6055,12 +6253,12 @@
         <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="157" spans="2:6">
       <c r="B157" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D157">
         <v>1990</v>
@@ -6069,12 +6267,12 @@
         <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="158" spans="2:6">
       <c r="B158" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D158">
         <v>1991</v>
@@ -6083,15 +6281,15 @@
         <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="159" spans="2:6">
       <c r="B159" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C159" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D159">
         <v>1989</v>
@@ -6100,26 +6298,26 @@
         <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="160" spans="2:6">
       <c r="B160" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E160" t="s">
         <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="161" spans="2:6">
       <c r="B161" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D161">
         <v>1990</v>
@@ -6128,15 +6326,15 @@
         <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="162" spans="2:6">
       <c r="B162" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C162" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D162">
         <v>2008</v>
@@ -6145,15 +6343,15 @@
         <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="163" spans="2:6">
       <c r="B163" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C163" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D163">
         <v>2008</v>
@@ -6162,15 +6360,15 @@
         <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="164" spans="2:6">
       <c r="B164" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C164" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D164">
         <v>1982</v>
@@ -6179,15 +6377,15 @@
         <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="165" spans="2:6">
       <c r="B165" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C165" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D165">
         <v>2008</v>
@@ -6196,12 +6394,12 @@
         <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="166" spans="2:6">
       <c r="B166" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C166" t="s">
         <v>73</v>
@@ -6213,29 +6411,29 @@
         <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="167" spans="2:6">
       <c r="B167" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C167" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="E167" t="s">
         <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="168" spans="2:6">
       <c r="B168" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C168" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D168">
         <v>2009</v>
@@ -6244,15 +6442,15 @@
         <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="169" spans="2:6">
       <c r="B169" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C169" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D169">
         <v>1990</v>
@@ -6261,15 +6459,15 @@
         <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C170" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D170">
         <v>1992</v>
@@ -6278,29 +6476,29 @@
         <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C171" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E171" t="s">
         <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="172" spans="2:6">
       <c r="B172" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C172" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D172">
         <v>1993</v>
@@ -6309,158 +6507,158 @@
         <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E173" t="s">
         <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E175" t="s">
         <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="176" spans="2:6">
       <c r="B176" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="177" spans="2:6">
       <c r="B177" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E177" t="s">
         <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="178" spans="2:6">
       <c r="B178" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="E178" t="s">
         <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="179" spans="2:6">
       <c r="B179" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E179" t="s">
         <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="180" spans="2:6">
       <c r="B180" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="E180" t="s">
         <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="181" spans="2:6">
       <c r="B181" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E181" t="s">
         <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="182" spans="2:6">
       <c r="B182" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E182" t="s">
         <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="183" spans="2:6">
       <c r="B183" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="184" spans="2:6">
       <c r="B184" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="E184" t="s">
         <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="185" spans="2:6">
       <c r="B185" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E185" t="s">
         <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="186" spans="2:6">
       <c r="B186" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C186" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D186">
         <v>1988</v>
@@ -6469,15 +6667,15 @@
         <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="187" spans="2:6">
       <c r="B187" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C187" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D187">
         <v>1988</v>
@@ -6486,40 +6684,40 @@
         <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="188" spans="2:6">
       <c r="B188" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="E188" t="s">
         <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="189" spans="2:6">
       <c r="B189" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E189" t="s">
         <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="190" spans="2:6">
       <c r="B190" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="191" spans="5:6">
@@ -6527,7 +6725,7 @@
         <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="192" spans="5:6">
@@ -6535,7 +6733,7 @@
         <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="193" spans="5:6">
@@ -6543,7 +6741,7 @@
         <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="194" spans="5:6">
@@ -6551,7 +6749,7 @@
         <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="195" spans="5:6">
@@ -6559,7 +6757,7 @@
         <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="196" spans="5:6">
@@ -6567,7 +6765,7 @@
         <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="197" spans="5:6">
@@ -6575,7 +6773,7 @@
         <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="198" spans="5:6">
@@ -6583,7 +6781,7 @@
         <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="199" spans="5:6">
@@ -6591,7 +6789,7 @@
         <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="200" spans="5:6">
@@ -6599,7 +6797,7 @@
         <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="201" spans="5:6">
@@ -6607,7 +6805,7 @@
         <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="202" spans="5:6">
@@ -6615,7 +6813,7 @@
         <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="203" spans="5:6">
@@ -6623,7 +6821,7 @@
         <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="204" spans="5:6">
@@ -6631,7 +6829,7 @@
         <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="205" spans="5:6">
@@ -6639,7 +6837,7 @@
         <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="206" spans="5:6">
@@ -6647,7 +6845,7 @@
         <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="207" spans="5:6">
@@ -6655,7 +6853,7 @@
         <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="208" spans="5:6">
@@ -6663,7 +6861,7 @@
         <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="209" spans="5:6">
@@ -6671,7 +6869,7 @@
         <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="210" spans="5:6">
@@ -6679,7 +6877,7 @@
         <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="211" spans="5:6">
@@ -6687,7 +6885,7 @@
         <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="212" spans="5:6">
@@ -6695,7 +6893,7 @@
         <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="213" spans="5:6">
@@ -6703,7 +6901,7 @@
         <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="214" spans="5:6">
@@ -6711,7 +6909,7 @@
         <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="215" spans="5:6">
@@ -6719,7 +6917,7 @@
         <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="216" spans="5:6">
@@ -6727,7 +6925,7 @@
         <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="217" spans="5:6">
@@ -6735,7 +6933,7 @@
         <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="218" spans="5:6">
@@ -6743,7 +6941,7 @@
         <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="219" spans="5:6">
@@ -6751,7 +6949,7 @@
         <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="220" spans="5:6">
@@ -6759,7 +6957,7 @@
         <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="221" spans="5:6">
@@ -6767,7 +6965,7 @@
         <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="222" spans="5:6">
@@ -6775,7 +6973,7 @@
         <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="223" spans="5:6">
@@ -6783,7 +6981,7 @@
         <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="224" spans="5:6">
@@ -6791,7 +6989,7 @@
         <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="225" spans="5:6">
@@ -6799,7 +6997,7 @@
         <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="226" spans="5:6">
@@ -6807,7 +7005,7 @@
         <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="227" spans="5:6">
@@ -6815,7 +7013,7 @@
         <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="228" spans="5:6">
@@ -6823,7 +7021,7 @@
         <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="229" spans="5:6">
@@ -6831,7 +7029,7 @@
         <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="230" spans="5:6">
@@ -6839,7 +7037,7 @@
         <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -6864,19 +7062,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F1" t="s">
         <v>105</v>
@@ -6884,7 +7082,7 @@
     </row>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -6896,15 +7094,267 @@
         <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>431</v>
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
+        <v>452</v>
+      </c>
+      <c r="F5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="s">
+        <v>454</v>
+      </c>
+      <c r="F6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>457</v>
+      </c>
+      <c r="F8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E9" t="s">
+        <v>459</v>
+      </c>
+      <c r="F9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>460</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>461</v>
+      </c>
+      <c r="D11" t="s">
+        <v>462</v>
+      </c>
+      <c r="F11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>456</v>
+      </c>
+      <c r="D12" t="s">
+        <v>463</v>
+      </c>
+      <c r="E12" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" t="s">
+        <v>466</v>
+      </c>
+      <c r="D13" t="s">
+        <v>467</v>
+      </c>
+      <c r="E13" t="s">
+        <v>468</v>
+      </c>
+      <c r="F13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" t="s">
+        <v>470</v>
+      </c>
+      <c r="F23" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" t="s">
+        <v>472</v>
+      </c>
+      <c r="F24" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
